--- a/Список-маяков.xlsx
+++ b/Список-маяков.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MSK" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="APT" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">APT!$A$1:$K$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MSK!$A$2:$S$156</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SCH!$A$2:$S$15</definedName>
   </definedNames>
@@ -939,8 +940,70 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Малинин Александр</author>
+  </authors>
+  <commentList>
+    <comment ref="C33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Малинин Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Полоса имеет впадину. Подробнее см. схему UUBB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Малинин Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Полоса имеет впадину. Подробнее см. схему UUBB</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="308">
   <si>
     <t>Target</t>
   </si>
@@ -1786,15 +1849,94 @@
   </si>
   <si>
     <t>VOR DME</t>
+  </si>
+  <si>
+    <t>14L</t>
+  </si>
+  <si>
+    <t>32R</t>
+  </si>
+  <si>
+    <t>14R</t>
+  </si>
+  <si>
+    <t>32L</t>
+  </si>
+  <si>
+    <t>07R</t>
+  </si>
+  <si>
+    <t>25L</t>
+  </si>
+  <si>
+    <t>07L</t>
+  </si>
+  <si>
+    <t>25R</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>12R</t>
+  </si>
+  <si>
+    <t>30L</t>
+  </si>
+  <si>
+    <t>12L</t>
+  </si>
+  <si>
+    <t>30R</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1880,7 +2022,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1977,11 +2119,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2095,9 +2270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2107,6 +2279,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2114,6 +2292,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2462,7 +2670,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AL570"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AK3" sqref="AK3:AL3"/>
     </sheetView>
@@ -2493,40 +2701,40 @@
   <sheetData>
     <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="U1" s="45" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="U1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
       <c r="AA1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2542,18 +2750,18 @@
       <c r="AE1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="AG1" s="46" t="s">
+      <c r="AG1" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="45" t="s">
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45" t="s">
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="AL1" s="45"/>
+      <c r="AL1" s="46"/>
     </row>
     <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2644,16 +2852,16 @@
       <c r="AH2" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AI2" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="AJ2" s="41" t="s">
+      <c r="AJ2" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="AK2" s="41" t="s">
+      <c r="AK2" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="AL2" s="41" t="s">
+      <c r="AL2" s="40" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2687,7 +2895,7 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="43" t="str">
+      <c r="J3" s="42" t="str">
         <f>IF(B3="LOC", 0, IF(B3="GS", 0, "X"))</f>
         <v>X</v>
       </c>
@@ -3478,7 +3686,7 @@
       <c r="C11" s="1">
         <v>907</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>219</v>
       </c>
       <c r="E11" s="17">
@@ -3583,7 +3791,7 @@
       <c r="C12" s="12">
         <v>908</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="17">
@@ -4595,7 +4803,7 @@
       <c r="C22" s="1">
         <v>904</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="41" t="s">
         <v>136</v>
       </c>
       <c r="E22" s="12">
@@ -4912,7 +5120,7 @@
       <c r="C25" s="1">
         <v>907</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>159</v>
       </c>
       <c r="E25" s="17">
@@ -4940,7 +5148,7 @@
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="43">
+      <c r="O25" s="42">
         <v>659</v>
       </c>
       <c r="P25" s="1"/>
@@ -5124,7 +5332,7 @@
       <c r="C27" s="1">
         <v>906</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="41" t="s">
         <v>133</v>
       </c>
       <c r="E27" s="12">
@@ -5581,7 +5789,7 @@
       <c r="Z31" s="5">
         <v>20</v>
       </c>
-      <c r="AA31" s="41">
+      <c r="AA31" s="40">
         <f t="shared" si="3"/>
         <v>55.967777777777776</v>
       </c>
@@ -5736,7 +5944,7 @@
       <c r="C33" s="1">
         <v>906</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="41" t="s">
         <v>137</v>
       </c>
       <c r="E33" s="12">
@@ -6348,7 +6556,7 @@
       <c r="C39" s="1">
         <v>906</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="41" t="s">
         <v>138</v>
       </c>
       <c r="E39" s="12">
@@ -6634,11 +6842,11 @@
       <c r="A42" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B42" s="41" t="str">
+      <c r="B42" s="40" t="str">
         <f>VLOOKUP(C42,TABL!A:B,2,0)</f>
         <v>MB O</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="40">
         <v>910</v>
       </c>
       <c r="D42" s="26" t="s">
@@ -6654,8 +6862,8 @@
         <f>IF(B42="LOC", 0, IF(B42="GS", 0, "X"))</f>
         <v>X</v>
       </c>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41">
+      <c r="H42" s="40"/>
+      <c r="I42" s="40">
         <v>1</v>
       </c>
       <c r="J42" s="22" t="str">
@@ -6667,13 +6875,13 @@
         <f>IF(B42="GS", 0, "X")</f>
         <v>X</v>
       </c>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
       <c r="O42" s="22" t="str">
         <f>IF(B42="MB O", "X", IF(B42="MB I", "X", 0))</f>
         <v>X</v>
       </c>
-      <c r="P42" s="41"/>
+      <c r="P42" s="40"/>
       <c r="Q42" s="14" t="str">
         <f>IF(B42="MB O", "-", IF(B42="MB I", "-", "?"))</f>
         <v>-</v>
@@ -6741,11 +6949,11 @@
       <c r="A43" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="41" t="str">
+      <c r="B43" s="40" t="str">
         <f>VLOOKUP(C43,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="40">
         <v>907</v>
       </c>
       <c r="D43" s="26" t="s">
@@ -6761,8 +6969,8 @@
         <f>IF(B43="LOC", 0, IF(B43="GS", 0, "X"))</f>
         <v>X</v>
       </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41">
+      <c r="H43" s="40"/>
+      <c r="I43" s="40">
         <v>1</v>
       </c>
       <c r="J43" s="22" t="str">
@@ -6774,13 +6982,13 @@
         <f>IF(B43="GS", 0, "X")</f>
         <v>X</v>
       </c>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
       <c r="O43" s="22">
         <v>770</v>
       </c>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41" t="s">
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40" t="s">
         <v>53</v>
       </c>
       <c r="R43" s="14" t="str">
@@ -6846,11 +7054,11 @@
       <c r="A44" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B44" s="41" t="str">
+      <c r="B44" s="40" t="str">
         <f>VLOOKUP(C44,TABL!A:B,2,0)</f>
         <v>MB I</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="40">
         <v>908</v>
       </c>
       <c r="D44" s="26" t="s">
@@ -6866,8 +7074,8 @@
         <f>IF(B44="LOC", 0, IF(B44="GS", 0, "X"))</f>
         <v>X</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41">
+      <c r="H44" s="40"/>
+      <c r="I44" s="40">
         <v>1</v>
       </c>
       <c r="J44" s="22" t="str">
@@ -6879,13 +7087,13 @@
         <f>IF(B44="GS", 0, "X")</f>
         <v>X</v>
       </c>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
       <c r="O44" s="22" t="str">
         <f>IF(B44="MB O", "X", IF(B44="MB I", "X", 0))</f>
         <v>X</v>
       </c>
-      <c r="P44" s="41"/>
+      <c r="P44" s="40"/>
       <c r="Q44" s="14" t="str">
         <f>IF(B44="MB O", "-", IF(B44="MB I", "-", "?"))</f>
         <v>-</v>
@@ -6960,7 +7168,7 @@
       <c r="C45" s="1">
         <v>906</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="41" t="s">
         <v>139</v>
       </c>
       <c r="E45" s="12">
@@ -7141,11 +7349,11 @@
       <c r="A47" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="41" t="str">
+      <c r="B47" s="40" t="str">
         <f>VLOOKUP(C47,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="40">
         <v>907</v>
       </c>
       <c r="D47" s="26" t="s">
@@ -7161,8 +7369,8 @@
         <f t="shared" ref="G47:G61" si="30">IF(B47="LOC", 0, IF(B47="GS", 0, "X"))</f>
         <v>X</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41">
+      <c r="H47" s="40"/>
+      <c r="I47" s="40">
         <v>1</v>
       </c>
       <c r="J47" s="22" t="str">
@@ -7174,13 +7382,13 @@
         <f t="shared" ref="L47:L62" si="32">IF(B47="GS", 0, "X")</f>
         <v>X</v>
       </c>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
       <c r="O47" s="22">
         <v>380</v>
       </c>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41" t="s">
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40" t="s">
         <v>38</v>
       </c>
       <c r="R47" s="14" t="str">
@@ -7246,11 +7454,11 @@
       <c r="A48" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="41" t="str">
+      <c r="B48" s="40" t="str">
         <f>VLOOKUP(C48,TABL!A:B,2,0)</f>
         <v>MB O</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="40">
         <v>910</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -7266,8 +7474,8 @@
         <f t="shared" si="30"/>
         <v>X</v>
       </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41">
+      <c r="H48" s="40"/>
+      <c r="I48" s="40">
         <v>1</v>
       </c>
       <c r="J48" s="22" t="str">
@@ -7279,13 +7487,13 @@
         <f t="shared" si="32"/>
         <v>X</v>
       </c>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
       <c r="O48" s="22" t="str">
         <f>IF(B48="MB O", "X", IF(B48="MB I", "X", 0))</f>
         <v>X</v>
       </c>
-      <c r="P48" s="41"/>
+      <c r="P48" s="40"/>
       <c r="Q48" s="14" t="str">
         <f>IF(B48="MB O", "-", IF(B48="MB I", "-", "?"))</f>
         <v>-</v>
@@ -7353,11 +7561,11 @@
       <c r="A49" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B49" s="41" t="str">
+      <c r="B49" s="40" t="str">
         <f>VLOOKUP(C49,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="40">
         <v>907</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -7373,8 +7581,8 @@
         <f t="shared" si="30"/>
         <v>X</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41">
+      <c r="H49" s="40"/>
+      <c r="I49" s="40">
         <v>1</v>
       </c>
       <c r="J49" s="22" t="str">
@@ -7386,13 +7594,13 @@
         <f t="shared" si="32"/>
         <v>X</v>
       </c>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
       <c r="O49" s="22">
         <v>770</v>
       </c>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41" t="s">
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40" t="s">
         <v>55</v>
       </c>
       <c r="R49" s="14" t="str">
@@ -7458,11 +7666,11 @@
       <c r="A50" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B50" s="41" t="str">
+      <c r="B50" s="40" t="str">
         <f>VLOOKUP(C50,TABL!A:B,2,0)</f>
         <v>MB I</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="40">
         <v>908</v>
       </c>
       <c r="D50" s="26" t="s">
@@ -7478,8 +7686,8 @@
         <f t="shared" si="30"/>
         <v>X</v>
       </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41">
+      <c r="H50" s="40"/>
+      <c r="I50" s="40">
         <v>1</v>
       </c>
       <c r="J50" s="22" t="str">
@@ -7491,13 +7699,13 @@
         <f t="shared" si="32"/>
         <v>X</v>
       </c>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
       <c r="O50" s="22" t="str">
         <f>IF(B50="MB O", "X", IF(B50="MB I", "X", 0))</f>
         <v>X</v>
       </c>
-      <c r="P50" s="41"/>
+      <c r="P50" s="40"/>
       <c r="Q50" s="14" t="str">
         <f>IF(B50="MB O", "-", IF(B50="MB I", "-", "?"))</f>
         <v>-</v>
@@ -7565,11 +7773,11 @@
       <c r="A51" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="41" t="str">
+      <c r="B51" s="40" t="str">
         <f>VLOOKUP(C51,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51" s="40">
         <v>907</v>
       </c>
       <c r="D51" s="26" t="s">
@@ -7585,8 +7793,8 @@
         <f t="shared" si="30"/>
         <v>X</v>
       </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41">
+      <c r="H51" s="40"/>
+      <c r="I51" s="40">
         <v>1</v>
       </c>
       <c r="J51" s="22" t="str">
@@ -7598,13 +7806,13 @@
         <f t="shared" si="32"/>
         <v>X</v>
       </c>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
       <c r="O51" s="22">
         <v>732</v>
       </c>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41" t="s">
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40" t="s">
         <v>59</v>
       </c>
       <c r="R51" s="14" t="str">
@@ -7670,11 +7878,11 @@
       <c r="A52" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="41" t="str">
+      <c r="B52" s="40" t="str">
         <f>VLOOKUP(C52,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="40">
         <v>907</v>
       </c>
       <c r="D52" s="26" t="s">
@@ -7709,7 +7917,7 @@
         <v>360</v>
       </c>
       <c r="P52" s="1"/>
-      <c r="Q52" s="41" t="s">
+      <c r="Q52" s="40" t="s">
         <v>56</v>
       </c>
       <c r="R52" s="14" t="str">
@@ -7775,11 +7983,11 @@
       <c r="A53" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="41" t="str">
+      <c r="B53" s="40" t="str">
         <f>VLOOKUP(C53,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53" s="40">
         <v>907</v>
       </c>
       <c r="D53" s="26" t="s">
@@ -7814,7 +8022,7 @@
         <v>1080</v>
       </c>
       <c r="P53" s="1"/>
-      <c r="Q53" s="41" t="s">
+      <c r="Q53" s="40" t="s">
         <v>60</v>
       </c>
       <c r="R53" s="14" t="str">
@@ -7880,11 +8088,11 @@
       <c r="A54" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="41" t="str">
+      <c r="B54" s="40" t="str">
         <f>VLOOKUP(C54,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="40">
         <v>907</v>
       </c>
       <c r="D54" s="26" t="s">
@@ -7919,7 +8127,7 @@
         <v>680</v>
       </c>
       <c r="P54" s="1"/>
-      <c r="Q54" s="41" t="s">
+      <c r="Q54" s="40" t="s">
         <v>95</v>
       </c>
       <c r="R54" s="14" t="str">
@@ -7985,11 +8193,11 @@
       <c r="A55" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="41" t="str">
+      <c r="B55" s="40" t="str">
         <f>VLOOKUP(C55,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55" s="40">
         <v>907</v>
       </c>
       <c r="D55" s="26" t="s">
@@ -8024,7 +8232,7 @@
         <v>410</v>
       </c>
       <c r="P55" s="1"/>
-      <c r="Q55" s="41" t="s">
+      <c r="Q55" s="40" t="s">
         <v>86</v>
       </c>
       <c r="R55" s="14" t="str">
@@ -8090,11 +8298,11 @@
       <c r="A56" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B56" s="41" t="str">
+      <c r="B56" s="40" t="str">
         <f>VLOOKUP(C56,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C56" s="41">
+      <c r="C56" s="40">
         <v>907</v>
       </c>
       <c r="D56" s="26" t="s">
@@ -8129,7 +8337,7 @@
         <v>985</v>
       </c>
       <c r="P56" s="1"/>
-      <c r="Q56" s="41" t="s">
+      <c r="Q56" s="40" t="s">
         <v>91</v>
       </c>
       <c r="R56" s="14" t="str">
@@ -8195,11 +8403,11 @@
       <c r="A57" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="41" t="str">
+      <c r="B57" s="40" t="str">
         <f>VLOOKUP(C57,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="40">
         <v>907</v>
       </c>
       <c r="D57" s="26" t="s">
@@ -8234,7 +8442,7 @@
         <v>1020</v>
       </c>
       <c r="P57" s="1"/>
-      <c r="Q57" s="41" t="s">
+      <c r="Q57" s="40" t="s">
         <v>58</v>
       </c>
       <c r="R57" s="14" t="str">
@@ -8300,11 +8508,11 @@
       <c r="A58" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="41" t="str">
+      <c r="B58" s="40" t="str">
         <f>VLOOKUP(C58,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="40">
         <v>907</v>
       </c>
       <c r="D58" s="26" t="s">
@@ -8339,7 +8547,7 @@
         <v>405</v>
       </c>
       <c r="P58" s="1"/>
-      <c r="Q58" s="41" t="s">
+      <c r="Q58" s="40" t="s">
         <v>74</v>
       </c>
       <c r="R58" s="14" t="str">
@@ -8405,11 +8613,11 @@
       <c r="A59" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="41" t="str">
+      <c r="B59" s="40" t="str">
         <f>VLOOKUP(C59,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59" s="40">
         <v>907</v>
       </c>
       <c r="D59" s="26" t="s">
@@ -8425,8 +8633,8 @@
         <f t="shared" si="30"/>
         <v>X</v>
       </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41">
+      <c r="H59" s="40"/>
+      <c r="I59" s="40">
         <v>1</v>
       </c>
       <c r="J59" s="22" t="str">
@@ -8438,13 +8646,13 @@
         <f t="shared" si="32"/>
         <v>X</v>
       </c>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
       <c r="O59" s="22">
         <v>230</v>
       </c>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41" t="s">
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40" t="s">
         <v>76</v>
       </c>
       <c r="R59" s="14" t="str">
@@ -8517,7 +8725,7 @@
       <c r="C60" s="1">
         <v>903</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="41" t="s">
         <v>263</v>
       </c>
       <c r="E60" s="12">
@@ -8534,7 +8742,7 @@
       <c r="I60" s="1">
         <v>1</v>
       </c>
-      <c r="J60" s="43" t="str">
+      <c r="J60" s="42" t="str">
         <f t="shared" si="31"/>
         <v>X</v>
       </c>
@@ -8622,7 +8830,7 @@
       <c r="C61" s="1">
         <v>904</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="41" t="s">
         <v>140</v>
       </c>
       <c r="E61" s="12">
@@ -8727,7 +8935,7 @@
       <c r="C62" s="1">
         <v>906</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="D62" s="41" t="s">
         <v>141</v>
       </c>
       <c r="E62" s="12">
@@ -9232,7 +9440,7 @@
       <c r="C67" s="1">
         <v>906</v>
       </c>
-      <c r="D67" s="42" t="s">
+      <c r="D67" s="41" t="s">
         <v>143</v>
       </c>
       <c r="E67" s="12">
@@ -9420,7 +9628,7 @@
       <c r="C69" s="1">
         <v>904</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D69" s="41" t="s">
         <v>144</v>
       </c>
       <c r="E69" s="17">
@@ -9448,7 +9656,7 @@
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="43">
+      <c r="O69" s="42">
         <v>111.5</v>
       </c>
       <c r="P69" s="1"/>
@@ -9518,7 +9726,7 @@
       <c r="A70" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B70" s="41" t="str">
+      <c r="B70" s="40" t="str">
         <f>VLOOKUP(C70,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
@@ -9557,7 +9765,7 @@
         <v>914</v>
       </c>
       <c r="P70" s="1"/>
-      <c r="Q70" s="41" t="s">
+      <c r="Q70" s="40" t="s">
         <v>68</v>
       </c>
       <c r="R70" s="14" t="str">
@@ -9623,11 +9831,11 @@
       <c r="A71" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B71" s="41" t="str">
+      <c r="B71" s="40" t="str">
         <f>VLOOKUP(C71,TABL!A:B,2,0)</f>
         <v>MB O</v>
       </c>
-      <c r="C71" s="41">
+      <c r="C71" s="40">
         <v>910</v>
       </c>
       <c r="D71" s="26" t="s">
@@ -9737,7 +9945,7 @@
       <c r="C72" s="1">
         <v>906</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D72" s="41" t="s">
         <v>145</v>
       </c>
       <c r="E72" s="12">
@@ -9832,7 +10040,7 @@
       <c r="C73" s="1">
         <v>905</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="41" t="s">
         <v>134</v>
       </c>
       <c r="E73" s="12">
@@ -10023,7 +10231,7 @@
       <c r="A75" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B75" s="41" t="str">
+      <c r="B75" s="40" t="str">
         <f>VLOOKUP(C75,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
@@ -10430,7 +10638,7 @@
       <c r="C79" s="1">
         <v>904</v>
       </c>
-      <c r="D79" s="42" t="s">
+      <c r="D79" s="41" t="s">
         <v>147</v>
       </c>
       <c r="E79" s="17">
@@ -11308,7 +11516,7 @@
         <v>1215</v>
       </c>
       <c r="P87" s="1"/>
-      <c r="Q87" s="41" t="s">
+      <c r="Q87" s="40" t="s">
         <v>63</v>
       </c>
       <c r="R87" s="14" t="str">
@@ -11670,7 +11878,7 @@
         <v>625</v>
       </c>
       <c r="P91" s="1"/>
-      <c r="Q91" s="41" t="s">
+      <c r="Q91" s="40" t="s">
         <v>78</v>
       </c>
       <c r="R91" s="14" t="str">
@@ -11882,7 +12090,7 @@
         <v>305</v>
       </c>
       <c r="P93" s="1"/>
-      <c r="Q93" s="41" t="s">
+      <c r="Q93" s="40" t="s">
         <v>79</v>
       </c>
       <c r="R93" s="14" t="str">
@@ -12094,7 +12302,7 @@
         <v>625</v>
       </c>
       <c r="P95" s="1"/>
-      <c r="Q95" s="41" t="s">
+      <c r="Q95" s="40" t="s">
         <v>80</v>
       </c>
       <c r="R95" s="14" t="str">
@@ -12306,7 +12514,7 @@
         <v>305</v>
       </c>
       <c r="P97" s="1"/>
-      <c r="Q97" s="41" t="s">
+      <c r="Q97" s="40" t="s">
         <v>53</v>
       </c>
       <c r="R97" s="14" t="str">
@@ -12503,7 +12711,7 @@
       <c r="I99" s="12">
         <v>1</v>
       </c>
-      <c r="J99" s="43" t="str">
+      <c r="J99" s="42" t="str">
         <f t="shared" si="56"/>
         <v>X</v>
       </c>
@@ -13471,8 +13679,8 @@
         <f t="shared" si="63"/>
         <v>X</v>
       </c>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41">
+      <c r="H109" s="40"/>
+      <c r="I109" s="40">
         <v>1</v>
       </c>
       <c r="J109" s="22" t="str">
@@ -13484,13 +13692,13 @@
         <f t="shared" si="65"/>
         <v>X</v>
       </c>
-      <c r="M109" s="41"/>
-      <c r="N109" s="41"/>
+      <c r="M109" s="40"/>
+      <c r="N109" s="40"/>
       <c r="O109" s="31" t="str">
         <f>IF(B109="MB O", "X", IF(B109="MB I", "X", 0))</f>
         <v>X</v>
       </c>
-      <c r="P109" s="41"/>
+      <c r="P109" s="40"/>
       <c r="Q109" s="32" t="str">
         <f>IF(B109="MB O", "-", IF(B109="MB I", "-", "?"))</f>
         <v>-</v>
@@ -13578,8 +13786,8 @@
         <f t="shared" si="63"/>
         <v>X</v>
       </c>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41">
+      <c r="H110" s="40"/>
+      <c r="I110" s="40">
         <v>1</v>
       </c>
       <c r="J110" s="22" t="str">
@@ -13591,12 +13799,12 @@
         <f t="shared" si="65"/>
         <v>X</v>
       </c>
-      <c r="M110" s="41"/>
-      <c r="N110" s="41"/>
+      <c r="M110" s="40"/>
+      <c r="N110" s="40"/>
       <c r="O110" s="31">
         <v>1185</v>
       </c>
-      <c r="P110" s="41"/>
+      <c r="P110" s="40"/>
       <c r="Q110" s="17" t="s">
         <v>84</v>
       </c>
@@ -13770,11 +13978,11 @@
       <c r="A112" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B112" s="41" t="str">
+      <c r="B112" s="40" t="str">
         <f>VLOOKUP(C112,TABL!A:B,2,0)</f>
         <v>NDB</v>
       </c>
-      <c r="C112" s="41">
+      <c r="C112" s="40">
         <v>907</v>
       </c>
       <c r="D112" s="26" t="s">
@@ -13790,8 +13998,8 @@
         <f t="shared" si="63"/>
         <v>X</v>
       </c>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41">
+      <c r="H112" s="40"/>
+      <c r="I112" s="40">
         <v>1</v>
       </c>
       <c r="J112" s="22" t="str">
@@ -13803,13 +14011,13 @@
         <f t="shared" si="65"/>
         <v>X</v>
       </c>
-      <c r="M112" s="41"/>
-      <c r="N112" s="41"/>
+      <c r="M112" s="40"/>
+      <c r="N112" s="40"/>
       <c r="O112" s="22">
         <v>642</v>
       </c>
-      <c r="P112" s="41"/>
-      <c r="Q112" s="41" t="s">
+      <c r="P112" s="40"/>
+      <c r="Q112" s="40" t="s">
         <v>94</v>
       </c>
       <c r="R112" s="14" t="str">
@@ -14019,7 +14227,7 @@
         <v>493</v>
       </c>
       <c r="P114" s="1"/>
-      <c r="Q114" s="41" t="s">
+      <c r="Q114" s="40" t="s">
         <v>61</v>
       </c>
       <c r="R114" s="14" t="str">
@@ -14229,7 +14437,7 @@
         <v>570</v>
       </c>
       <c r="P116" s="1"/>
-      <c r="Q116" s="41" t="s">
+      <c r="Q116" s="40" t="s">
         <v>87</v>
       </c>
       <c r="R116" s="14" t="str">
@@ -14439,7 +14647,7 @@
         <v>1285</v>
       </c>
       <c r="P118" s="1"/>
-      <c r="Q118" s="41" t="s">
+      <c r="Q118" s="40" t="s">
         <v>93</v>
       </c>
       <c r="R118" s="14" t="str">
@@ -14649,7 +14857,7 @@
         <v>1055</v>
       </c>
       <c r="P120" s="1"/>
-      <c r="Q120" s="41" t="s">
+      <c r="Q120" s="40" t="s">
         <v>89</v>
       </c>
       <c r="R120" s="14" t="str">
@@ -14859,7 +15067,7 @@
         <v>688</v>
       </c>
       <c r="P122" s="1"/>
-      <c r="Q122" s="41" t="s">
+      <c r="Q122" s="40" t="s">
         <v>90</v>
       </c>
       <c r="R122" s="14" t="str">
@@ -15354,7 +15562,7 @@
       <c r="C127" s="17">
         <v>907</v>
       </c>
-      <c r="D127" s="42" t="s">
+      <c r="D127" s="41" t="s">
         <v>234</v>
       </c>
       <c r="E127" s="17">
@@ -19494,7 +19702,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
@@ -19524,41 +19732,41 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
       <c r="T1" s="2"/>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
       <c r="AA1" s="6" t="s">
         <v>1</v>
       </c>
@@ -19574,18 +19782,18 @@
       <c r="AE1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="AG1" s="46" t="s">
+      <c r="AG1" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="45" t="s">
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45" t="s">
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="AL1" s="45"/>
+      <c r="AL1" s="46"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -19677,16 +19885,16 @@
       <c r="AH2" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="AK2" s="44" t="s">
+      <c r="AK2" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AL2" s="43" t="s">
         <v>278</v>
       </c>
     </row>
@@ -21136,298 +21344,1432 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="5" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="60" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="47" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B3" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="C3" s="9">
+        <v>180.6</v>
+      </c>
+      <c r="D3" s="43">
+        <v>55</v>
+      </c>
+      <c r="E3" s="43">
+        <v>24</v>
+      </c>
+      <c r="F3" s="43">
+        <v>31</v>
+      </c>
+      <c r="G3" s="43">
+        <v>37</v>
+      </c>
+      <c r="H3" s="43">
+        <v>54</v>
+      </c>
+      <c r="I3" s="43">
+        <v>23</v>
+      </c>
+      <c r="J3" s="54">
+        <f>D3+E3/60+F3/3600</f>
+        <v>55.408611111111107</v>
+      </c>
+      <c r="K3" s="54">
+        <f>G3+H3/60+I3/3600</f>
+        <v>37.906388888888884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="B4" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="43">
+        <v>167.8</v>
+      </c>
+      <c r="D4" s="43">
+        <v>55</v>
+      </c>
+      <c r="E4" s="43">
+        <v>25</v>
+      </c>
+      <c r="F4" s="43">
+        <v>23</v>
+      </c>
+      <c r="G4" s="43">
+        <v>37</v>
+      </c>
+      <c r="H4" s="43">
+        <v>54</v>
+      </c>
+      <c r="I4" s="43">
+        <v>29</v>
+      </c>
+      <c r="J4" s="54">
+        <f t="shared" ref="J4:J39" si="0">D4+E4/60+F4/3600</f>
+        <v>55.42305555555555</v>
+      </c>
+      <c r="K4" s="54">
+        <f t="shared" ref="K4:K39" si="1">G4+H4/60+I4/3600</f>
+        <v>37.908055555555556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="B5" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="43">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="D5" s="43">
+        <v>55</v>
+      </c>
+      <c r="E5" s="43">
+        <v>23</v>
+      </c>
+      <c r="F5" s="43">
+        <v>42</v>
+      </c>
+      <c r="G5" s="43">
+        <v>37</v>
+      </c>
+      <c r="H5" s="43">
+        <v>56</v>
+      </c>
+      <c r="I5" s="43">
+        <v>31</v>
+      </c>
+      <c r="J5" s="54">
+        <f t="shared" si="0"/>
+        <v>55.394999999999996</v>
+      </c>
+      <c r="K5" s="54">
+        <f t="shared" si="1"/>
+        <v>37.941944444444438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="B6" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="43">
+        <v>180.6</v>
+      </c>
+      <c r="D6" s="43">
+        <v>55</v>
+      </c>
+      <c r="E6" s="43">
+        <v>25</v>
+      </c>
+      <c r="F6" s="43">
+        <v>16</v>
+      </c>
+      <c r="G6" s="43">
+        <v>37</v>
+      </c>
+      <c r="H6" s="43">
+        <v>52</v>
+      </c>
+      <c r="I6" s="43">
+        <v>20</v>
+      </c>
+      <c r="J6" s="54">
+        <f t="shared" si="0"/>
+        <v>55.421111111111109</v>
+      </c>
+      <c r="K6" s="54">
+        <f t="shared" si="1"/>
+        <v>37.87222222222222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="B7" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="43">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="D7" s="43">
+        <v>55</v>
+      </c>
+      <c r="E7" s="43">
+        <v>23</v>
+      </c>
+      <c r="F7" s="43">
+        <v>42</v>
+      </c>
+      <c r="G7" s="43">
+        <v>37</v>
+      </c>
+      <c r="H7" s="43">
+        <v>54</v>
+      </c>
+      <c r="I7" s="43">
+        <v>12</v>
+      </c>
+      <c r="J7" s="54">
+        <f t="shared" si="0"/>
+        <v>55.394999999999996</v>
+      </c>
+      <c r="K7" s="54">
+        <f t="shared" si="1"/>
+        <v>37.903333333333329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B8" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="C8" s="43">
+        <v>192</v>
+      </c>
+      <c r="D8" s="43">
+        <v>55</v>
+      </c>
+      <c r="E8" s="43">
+        <v>58</v>
+      </c>
+      <c r="F8" s="43">
+        <v>21</v>
+      </c>
+      <c r="G8" s="43">
+        <v>37</v>
+      </c>
+      <c r="H8" s="43">
+        <v>24</v>
+      </c>
+      <c r="I8" s="43">
+        <v>47</v>
+      </c>
+      <c r="J8" s="54">
+        <f t="shared" si="0"/>
+        <v>55.972500000000004</v>
+      </c>
+      <c r="K8" s="54">
+        <f t="shared" si="1"/>
+        <v>37.413055555555552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="B9" s="59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="43">
+        <v>188.6</v>
+      </c>
+      <c r="D9" s="43">
+        <v>55</v>
+      </c>
+      <c r="E9" s="43">
+        <v>58</v>
+      </c>
+      <c r="F9" s="43">
+        <v>1.74</v>
+      </c>
+      <c r="G9" s="43">
+        <v>37</v>
+      </c>
+      <c r="H9" s="43">
+        <v>23</v>
+      </c>
+      <c r="I9" s="43">
+        <v>11.55</v>
+      </c>
+      <c r="J9" s="54">
+        <f t="shared" si="0"/>
+        <v>55.967150000000004</v>
+      </c>
+      <c r="K9" s="54">
+        <f t="shared" si="1"/>
+        <v>37.386541666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="B10" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="43">
+        <v>189.3</v>
+      </c>
+      <c r="D10" s="43">
+        <v>55</v>
+      </c>
+      <c r="E10" s="43">
+        <v>58</v>
+      </c>
+      <c r="F10" s="43">
+        <v>32.53</v>
+      </c>
+      <c r="G10" s="43">
+        <v>37</v>
+      </c>
+      <c r="H10" s="43">
+        <v>26</v>
+      </c>
+      <c r="I10" s="43">
+        <v>37.69</v>
+      </c>
+      <c r="J10" s="54">
+        <f t="shared" si="0"/>
+        <v>55.975702777777776</v>
+      </c>
+      <c r="K10" s="54">
+        <f t="shared" si="1"/>
+        <v>37.443802777777776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="B11" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="43">
+        <v>188.8</v>
+      </c>
+      <c r="D11" s="43">
+        <v>55</v>
+      </c>
+      <c r="E11" s="43">
+        <v>58</v>
+      </c>
+      <c r="F11" s="43">
+        <v>11.33</v>
+      </c>
+      <c r="G11" s="43">
+        <v>37</v>
+      </c>
+      <c r="H11" s="43">
+        <v>23</v>
+      </c>
+      <c r="I11" s="43">
+        <v>12.98</v>
+      </c>
+      <c r="J11" s="54">
+        <f t="shared" si="0"/>
+        <v>55.969813888888893</v>
+      </c>
+      <c r="K11" s="54">
+        <f t="shared" si="1"/>
+        <v>37.386938888888885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="B12" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="43">
+        <v>189.5</v>
+      </c>
+      <c r="D12" s="43">
+        <v>55</v>
+      </c>
+      <c r="E12" s="43">
+        <v>58</v>
+      </c>
+      <c r="F12" s="43">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="G12" s="43">
+        <v>37</v>
+      </c>
+      <c r="H12" s="43">
+        <v>26</v>
+      </c>
+      <c r="I12" s="43">
+        <v>30.77</v>
+      </c>
+      <c r="J12" s="54">
+        <f t="shared" si="0"/>
+        <v>55.978019444444449</v>
+      </c>
+      <c r="K12" s="54">
+        <f t="shared" si="1"/>
+        <v>37.441880555555549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B13" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="C13" s="43">
+        <v>208.8</v>
+      </c>
+      <c r="D13" s="43">
+        <v>55</v>
+      </c>
+      <c r="E13" s="43">
+        <v>35</v>
+      </c>
+      <c r="F13" s="43">
+        <v>57</v>
+      </c>
+      <c r="G13" s="43">
+        <v>37</v>
+      </c>
+      <c r="H13" s="43">
+        <v>16</v>
+      </c>
+      <c r="I13" s="43">
+        <v>23</v>
+      </c>
+      <c r="J13" s="54">
+        <f t="shared" si="0"/>
+        <v>55.599166666666669</v>
+      </c>
+      <c r="K13" s="54">
+        <f t="shared" si="1"/>
+        <v>37.273055555555551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="B14" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="43">
+        <v>192.9</v>
+      </c>
+      <c r="D14" s="43">
+        <v>55</v>
+      </c>
+      <c r="E14" s="43">
+        <v>35</v>
+      </c>
+      <c r="F14" s="43">
+        <v>11.63</v>
+      </c>
+      <c r="G14" s="43">
+        <v>37</v>
+      </c>
+      <c r="H14" s="43">
+        <v>15</v>
+      </c>
+      <c r="I14" s="43">
+        <v>27.39</v>
+      </c>
+      <c r="J14" s="54">
+        <f t="shared" si="0"/>
+        <v>55.58656388888889</v>
+      </c>
+      <c r="K14" s="54">
+        <f t="shared" si="1"/>
+        <v>37.25760833333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="B15" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="43">
+        <v>193.2</v>
+      </c>
+      <c r="D15" s="43">
+        <v>55</v>
+      </c>
+      <c r="E15" s="43">
+        <v>36</v>
+      </c>
+      <c r="F15" s="43">
+        <v>42.44</v>
+      </c>
+      <c r="G15" s="43">
+        <v>37</v>
+      </c>
+      <c r="H15" s="43">
+        <v>16</v>
+      </c>
+      <c r="I15" s="43">
+        <v>36.78</v>
+      </c>
+      <c r="J15" s="54">
+        <f t="shared" si="0"/>
+        <v>55.611788888888888</v>
+      </c>
+      <c r="K15" s="54">
+        <f t="shared" si="1"/>
+        <v>37.27688333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="B16" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="43">
+        <v>191.6</v>
+      </c>
+      <c r="D16" s="43">
+        <v>55</v>
+      </c>
+      <c r="E16" s="43">
+        <v>35</v>
+      </c>
+      <c r="F16" s="43">
+        <v>11.23</v>
+      </c>
+      <c r="G16" s="43">
+        <v>37</v>
+      </c>
+      <c r="H16" s="43">
+        <v>14</v>
+      </c>
+      <c r="I16" s="43">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="J16" s="54">
+        <f t="shared" si="0"/>
+        <v>55.586452777777779</v>
+      </c>
+      <c r="K16" s="54">
+        <f t="shared" si="1"/>
+        <v>37.238663888888887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="B17" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="43">
+        <v>208.8</v>
+      </c>
+      <c r="D17" s="43">
+        <v>55</v>
+      </c>
+      <c r="E17" s="43">
+        <v>35</v>
+      </c>
+      <c r="F17" s="43">
+        <v>52.98</v>
+      </c>
+      <c r="G17" s="43">
+        <v>37</v>
+      </c>
+      <c r="H17" s="43">
+        <v>17</v>
+      </c>
+      <c r="I17" s="43">
+        <v>24.93</v>
+      </c>
+      <c r="J17" s="54">
+        <f t="shared" si="0"/>
+        <v>55.598050000000001</v>
+      </c>
+      <c r="K17" s="54">
+        <f t="shared" si="1"/>
+        <v>37.290258333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B18" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="C18" s="43">
+        <v>123</v>
+      </c>
+      <c r="D18" s="43">
+        <v>55</v>
+      </c>
+      <c r="E18" s="43">
+        <v>33</v>
+      </c>
+      <c r="F18" s="43">
+        <v>10</v>
+      </c>
+      <c r="G18" s="43">
+        <v>38</v>
+      </c>
+      <c r="H18" s="43">
+        <v>9</v>
+      </c>
+      <c r="I18" s="43">
+        <v>59</v>
+      </c>
+      <c r="J18" s="54">
+        <f t="shared" si="0"/>
+        <v>55.552777777777777</v>
+      </c>
+      <c r="K18" s="54">
+        <f t="shared" si="1"/>
+        <v>38.166388888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="B19" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="43">
+        <v>122</v>
+      </c>
+      <c r="D19" s="43">
+        <v>55</v>
+      </c>
+      <c r="E19" s="43">
+        <v>33</v>
+      </c>
+      <c r="F19" s="43">
+        <v>50.14</v>
+      </c>
+      <c r="G19" s="43">
+        <v>38</v>
+      </c>
+      <c r="H19" s="43">
+        <v>7</v>
+      </c>
+      <c r="I19" s="43">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="J19" s="54">
+        <f t="shared" ref="J19" si="2">D19+E19/60+F19/3600</f>
+        <v>55.563927777777778</v>
+      </c>
+      <c r="K19" s="54">
+        <f t="shared" ref="K19" si="3">G19+H19/60+I19/3600</f>
+        <v>38.127763888888886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="43">
+        <v>114.5</v>
+      </c>
+      <c r="D20" s="43">
+        <v>55</v>
+      </c>
+      <c r="E20" s="43">
+        <v>32</v>
+      </c>
+      <c r="F20" s="43">
+        <v>11.42</v>
+      </c>
+      <c r="G20" s="43">
+        <v>38</v>
+      </c>
+      <c r="H20" s="43">
+        <v>10</v>
+      </c>
+      <c r="I20" s="43">
+        <v>56.23</v>
+      </c>
+      <c r="J20" s="54">
+        <f t="shared" si="0"/>
+        <v>55.536505555555557</v>
+      </c>
+      <c r="K20" s="54">
+        <f t="shared" si="1"/>
+        <v>38.182286111111111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B21" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="C21" s="43">
+        <v>172</v>
+      </c>
+      <c r="D21" s="43">
+        <v>55</v>
+      </c>
+      <c r="E21" s="43">
+        <v>30</v>
+      </c>
+      <c r="F21" s="43">
+        <v>27</v>
+      </c>
+      <c r="G21" s="43">
+        <v>37</v>
+      </c>
+      <c r="H21" s="43">
+        <v>30</v>
+      </c>
+      <c r="I21" s="43">
+        <v>15</v>
+      </c>
+      <c r="J21" s="54">
+        <f t="shared" si="0"/>
+        <v>55.5075</v>
+      </c>
+      <c r="K21" s="54">
+        <f t="shared" si="1"/>
+        <v>37.50416666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="B22" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="43">
+        <v>165</v>
+      </c>
+      <c r="D22" s="43">
+        <v>55</v>
+      </c>
+      <c r="E22" s="43">
+        <v>30</v>
+      </c>
+      <c r="F22" s="43">
+        <v>24.4</v>
+      </c>
+      <c r="G22" s="43">
+        <v>37</v>
+      </c>
+      <c r="H22" s="43">
+        <v>29</v>
+      </c>
+      <c r="I22" s="43">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J22" s="54">
+        <f t="shared" ref="J22" si="4">D22+E22/60+F22/3600</f>
+        <v>55.506777777777778</v>
+      </c>
+      <c r="K22" s="54">
+        <f t="shared" ref="K22" si="5">G22+H22/60+I22/3600</f>
+        <v>37.487944444444445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="43">
+        <v>171.7</v>
+      </c>
+      <c r="D23" s="43">
+        <v>55</v>
+      </c>
+      <c r="E23" s="43">
+        <v>30</v>
+      </c>
+      <c r="F23" s="43">
+        <v>30.4</v>
+      </c>
+      <c r="G23" s="43">
+        <v>37</v>
+      </c>
+      <c r="H23" s="43">
+        <v>31</v>
+      </c>
+      <c r="I23" s="43">
+        <v>13</v>
+      </c>
+      <c r="J23" s="54">
+        <f t="shared" si="0"/>
+        <v>55.508444444444443</v>
+      </c>
+      <c r="K23" s="54">
+        <f t="shared" si="1"/>
+        <v>37.520277777777778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B24" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="C24" s="43">
+        <v>185.8</v>
+      </c>
+      <c r="D24" s="43">
+        <v>55</v>
+      </c>
+      <c r="E24" s="43">
+        <v>36</v>
+      </c>
+      <c r="F24" s="43">
+        <v>41</v>
+      </c>
+      <c r="G24" s="43">
+        <v>36</v>
+      </c>
+      <c r="H24" s="43">
+        <v>38</v>
+      </c>
+      <c r="I24" s="43">
+        <v>52</v>
+      </c>
+      <c r="J24" s="54">
+        <f t="shared" ref="J24:J33" si="6">D24+E24/60+F24/3600</f>
+        <v>55.611388888888889</v>
+      </c>
+      <c r="K24" s="54">
+        <f t="shared" ref="K24:K33" si="7">G24+H24/60+I24/3600</f>
+        <v>36.647777777777776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="B25" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="43">
+        <v>181.4</v>
+      </c>
+      <c r="D25" s="43">
+        <v>55</v>
+      </c>
+      <c r="E25" s="43">
+        <v>37</v>
+      </c>
+      <c r="F25" s="43">
+        <v>8</v>
+      </c>
+      <c r="G25" s="43">
+        <v>36</v>
+      </c>
+      <c r="H25" s="43">
+        <v>39</v>
+      </c>
+      <c r="I25" s="43">
+        <v>49</v>
+      </c>
+      <c r="J25" s="54">
+        <f t="shared" si="6"/>
+        <v>55.61888888888889</v>
+      </c>
+      <c r="K25" s="54">
+        <f t="shared" si="7"/>
+        <v>36.663611111111109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="43">
+        <v>185.8</v>
+      </c>
+      <c r="D26" s="43">
+        <v>55</v>
+      </c>
+      <c r="E26" s="43">
+        <v>36</v>
+      </c>
+      <c r="F26" s="43">
+        <v>16</v>
+      </c>
+      <c r="G26" s="43">
+        <v>36</v>
+      </c>
+      <c r="H26" s="43">
+        <v>37</v>
+      </c>
+      <c r="I26" s="43">
+        <v>59</v>
+      </c>
+      <c r="J26" s="54">
+        <f t="shared" si="6"/>
+        <v>55.604444444444447</v>
+      </c>
+      <c r="K26" s="54">
+        <f t="shared" si="7"/>
+        <v>36.633055555555558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B27" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="C27" s="43">
+        <v>154</v>
+      </c>
+      <c r="D27" s="43">
+        <v>55</v>
+      </c>
+      <c r="E27" s="43">
+        <v>52</v>
+      </c>
+      <c r="F27" s="43">
+        <v>48</v>
+      </c>
+      <c r="G27" s="43">
+        <v>38</v>
+      </c>
+      <c r="H27" s="43">
+        <v>3</v>
+      </c>
+      <c r="I27" s="43">
+        <v>48</v>
+      </c>
+      <c r="J27" s="54">
+        <f t="shared" si="6"/>
+        <v>55.88</v>
+      </c>
+      <c r="K27" s="54">
+        <f t="shared" si="7"/>
+        <v>38.063333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="B28" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" s="43">
+        <v>154</v>
+      </c>
+      <c r="D28" s="43">
+        <v>55</v>
+      </c>
+      <c r="E28" s="43">
+        <v>53.3</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43">
+        <v>38</v>
+      </c>
+      <c r="H28" s="43">
+        <v>2.4</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="54">
+        <f t="shared" ref="J28:J29" si="8">D28+E28/60+F28/3600</f>
+        <v>55.888333333333335</v>
+      </c>
+      <c r="K28" s="54">
+        <f t="shared" ref="K28:K29" si="9">G28+H28/60+I28/3600</f>
+        <v>38.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="43">
+        <v>151</v>
+      </c>
+      <c r="D29" s="43">
+        <v>55</v>
+      </c>
+      <c r="E29" s="43">
+        <v>52.2</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43">
+        <v>38</v>
+      </c>
+      <c r="H29" s="43">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="54">
+        <f t="shared" si="8"/>
+        <v>55.87</v>
+      </c>
+      <c r="K29" s="54">
+        <f t="shared" si="9"/>
+        <v>38.076666666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="43">
+        <v>153</v>
+      </c>
+      <c r="D30" s="43">
+        <v>55</v>
+      </c>
+      <c r="E30" s="43">
+        <v>53.4</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43">
+        <v>38</v>
+      </c>
+      <c r="H30" s="43">
+        <v>2.7</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="54">
+        <f t="shared" si="6"/>
+        <v>55.89</v>
+      </c>
+      <c r="K30" s="54">
+        <f t="shared" si="7"/>
+        <v>38.045000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="43">
+        <v>151</v>
+      </c>
+      <c r="D31" s="43">
+        <v>55</v>
+      </c>
+      <c r="E31" s="43">
+        <v>52.3</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43">
+        <v>38</v>
+      </c>
+      <c r="H31" s="43">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="54">
+        <f t="shared" si="6"/>
+        <v>55.87166666666667</v>
+      </c>
+      <c r="K31" s="54">
+        <f t="shared" si="7"/>
+        <v>38.081666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B32" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="C32" s="43">
+        <v>130</v>
+      </c>
+      <c r="D32" s="43">
+        <v>55</v>
+      </c>
+      <c r="E32" s="43">
+        <v>36.9</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43">
+        <v>38</v>
+      </c>
+      <c r="H32" s="43">
+        <v>4</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="54">
+        <f t="shared" si="6"/>
+        <v>55.615000000000002</v>
+      </c>
+      <c r="K32" s="54">
+        <f t="shared" si="7"/>
+        <v>38.06666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="B33" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="C33" s="43">
+        <v>128.5</v>
+      </c>
+      <c r="D33" s="43">
+        <v>55</v>
+      </c>
+      <c r="E33" s="43">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43">
+        <v>38</v>
+      </c>
+      <c r="H33" s="43">
+        <v>3.2</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="54">
+        <f t="shared" si="6"/>
+        <v>55.6175</v>
+      </c>
+      <c r="K33" s="54">
+        <f t="shared" si="7"/>
+        <v>38.053333333333335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" s="43">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="D34" s="43">
+        <v>55</v>
+      </c>
+      <c r="E34" s="43">
+        <v>36.75</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43">
+        <v>38</v>
+      </c>
+      <c r="H34" s="43">
+        <v>4.8</v>
+      </c>
+      <c r="I34" s="43"/>
+      <c r="J34" s="54">
+        <f t="shared" si="0"/>
+        <v>55.612499999999997</v>
+      </c>
+      <c r="K34" s="54">
+        <f t="shared" si="1"/>
+        <v>38.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B35" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="C35" s="43">
+        <v>27.4</v>
+      </c>
+      <c r="D35" s="43">
+        <v>43</v>
+      </c>
+      <c r="E35" s="43">
+        <v>26</v>
+      </c>
+      <c r="F35" s="43">
+        <v>40</v>
+      </c>
+      <c r="G35" s="43">
+        <v>39</v>
+      </c>
+      <c r="H35" s="43">
+        <v>56</v>
+      </c>
+      <c r="I35" s="43">
+        <v>49</v>
+      </c>
+      <c r="J35" s="54">
+        <f t="shared" si="0"/>
+        <v>43.444444444444443</v>
+      </c>
+      <c r="K35" s="54">
+        <f t="shared" si="1"/>
+        <v>39.946944444444441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="B36" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" s="43">
+        <v>15.3</v>
+      </c>
+      <c r="D36" s="43">
+        <v>43</v>
+      </c>
+      <c r="E36" s="43">
+        <v>26</v>
+      </c>
+      <c r="F36" s="43">
+        <v>3.56</v>
+      </c>
+      <c r="G36" s="43">
+        <v>39</v>
+      </c>
+      <c r="H36" s="43">
+        <v>56</v>
+      </c>
+      <c r="I36" s="43">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="J36" s="54">
+        <f t="shared" ref="J36:J38" si="10">D36+E36/60+F36/3600</f>
+        <v>43.434322222222221</v>
+      </c>
+      <c r="K36" s="54">
+        <f t="shared" ref="K36:K38" si="11">G36+H36/60+I36/3600</f>
+        <v>39.94456944444444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="43">
+        <v>27.4</v>
+      </c>
+      <c r="D37" s="43">
+        <v>43</v>
+      </c>
+      <c r="E37" s="43">
+        <v>27</v>
+      </c>
+      <c r="F37" s="43">
+        <v>14.62</v>
+      </c>
+      <c r="G37" s="43">
+        <v>39</v>
+      </c>
+      <c r="H37" s="43">
+        <v>57</v>
+      </c>
+      <c r="I37" s="43">
+        <v>33.85</v>
+      </c>
+      <c r="J37" s="54">
+        <f t="shared" si="10"/>
+        <v>43.454061111111116</v>
+      </c>
+      <c r="K37" s="54">
+        <f t="shared" si="11"/>
+        <v>39.959402777777782</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" s="43">
+        <v>11.9</v>
+      </c>
+      <c r="D38" s="43">
+        <v>43</v>
+      </c>
+      <c r="E38" s="43">
+        <v>26</v>
+      </c>
+      <c r="F38" s="43">
+        <v>22.05</v>
+      </c>
+      <c r="G38" s="43">
+        <v>39</v>
+      </c>
+      <c r="H38" s="43">
+        <v>55</v>
+      </c>
+      <c r="I38" s="43">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="J38" s="54">
+        <f t="shared" si="10"/>
+        <v>43.439458333333327</v>
+      </c>
+      <c r="K38" s="54">
+        <f t="shared" si="11"/>
+        <v>39.925769444444441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" s="43">
+        <v>26.4</v>
+      </c>
+      <c r="D39" s="43">
+        <v>43</v>
+      </c>
+      <c r="E39" s="43">
+        <v>27</v>
+      </c>
+      <c r="F39" s="43">
+        <v>1.91</v>
+      </c>
+      <c r="G39" s="43">
+        <v>39</v>
+      </c>
+      <c r="H39" s="43">
+        <v>57</v>
+      </c>
+      <c r="I39" s="43">
+        <v>29.32</v>
+      </c>
+      <c r="J39" s="54">
+        <f t="shared" si="0"/>
+        <v>43.450530555555559</v>
+      </c>
+      <c r="K39" s="54">
+        <f t="shared" si="1"/>
+        <v>39.95814444444445</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K39">
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B14:B17 B36:B39 B19:B20 B22:B23 B25:B26 B33:B34" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Список-маяков.xlsx
+++ b/Список-маяков.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malinin.a\Моя работа\ПРОЕКТЫ\122 - Bell407GX\1. Bell 407 GX (Программирование)\22. Правка маяков\Список маяков\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malinin.a\Моя работа\ПРОЕКТЫ\122 - Bell407GX\1. Bell 407 GX (Программирование)\22. Правка маяков\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="8400" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MSK" sheetId="1" r:id="rId1"/>
@@ -154,6 +154,162 @@
           </rPr>
           <t xml:space="preserve">
 DO 659 - неправльная частота(320) #AM: Правильная! Причем везде!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Малинин Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+L+1/2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Малинин Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+L+1/2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Малинин Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+R+1/3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Малинин Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+R+1/3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Малинин Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+L+1/2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Малинин Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+L+1/2</t>
         </r>
       </text>
     </comment>
@@ -946,6 +1102,88 @@
     <author>Малинин Александр</author>
   </authors>
   <commentList>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Малинин Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+V - попадание
+~V - почти попадание
+X+ - перелёт
+X- - недолёт
+X! - посадка на травку</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Малинин Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+на травке, но внутри створа полосы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Малинин Александр:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+на травке, но  в створе</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C33" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1003,7 +1241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="327">
   <si>
     <t>Target</t>
   </si>
@@ -1927,6 +2165,63 @@
   </si>
   <si>
     <t>28</t>
+  </si>
+  <si>
+    <t>xCoord</t>
+  </si>
+  <si>
+    <t>yCoord</t>
+  </si>
+  <si>
+    <t>THRESHOLDS</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>L+</t>
+  </si>
+  <si>
+    <t>R+</t>
+  </si>
+  <si>
+    <t>L++</t>
+  </si>
+  <si>
+    <t>ERR</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>HIT</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>X-</t>
+  </si>
+  <si>
+    <t>X!(L)</t>
+  </si>
+  <si>
+    <t>X--</t>
+  </si>
+  <si>
+    <t>~V(X+)</t>
+  </si>
+  <si>
+    <t>X+++</t>
+  </si>
+  <si>
+    <t>X--!(R)</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +2231,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -2022,7 +2317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2152,11 +2447,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2285,33 +2598,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2324,11 +2625,71 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2386,8 +2747,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00CC99"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF00CC99"/>
       <color rgb="FF66FF66"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFFF00FF"/>
@@ -2668,11 +3029,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AL570"/>
+  <dimension ref="A1:AP570"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK3" sqref="AK3:AL3"/>
+      <pane xSplit="17325" topLeftCell="AM1"/>
+      <selection activeCell="U62" sqref="U62"/>
+      <selection pane="topRight" activeCell="AO101" sqref="AO101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,44 +3059,46 @@
     <col min="21" max="26" width="4.7109375" style="2" customWidth="1"/>
     <col min="27" max="29" width="9.7109375" style="2" customWidth="1"/>
     <col min="33" max="38" width="9.7109375" customWidth="1"/>
+    <col min="39" max="40" width="13.7109375" style="2" customWidth="1"/>
+    <col min="41" max="42" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="U1" s="46" t="s">
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="U1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46" t="s">
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
       <c r="AA1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2750,20 +3114,28 @@
       <c r="AE1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="AG1" s="47" t="s">
+      <c r="AG1" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="46" t="s">
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="AL1" s="46"/>
-    </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP1" s="66"/>
+    </row>
+    <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -2864,8 +3236,20 @@
       <c r="AL2" s="40" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN2" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="AO2" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP2" s="57" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>229</v>
       </c>
@@ -2974,8 +3358,10 @@
         <f>ABS(AB3-F3)*3600</f>
         <v>0.98879999998473522</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3"/>
+      <c r="AN3"/>
+    </row>
+    <row r="4" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>229</v>
       </c>
@@ -3084,8 +3470,10 @@
         <f>ABS(AB4-F4)*3600</f>
         <v>0.98879999998473522</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4"/>
+      <c r="AN4"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>229</v>
       </c>
@@ -3179,8 +3567,22 @@
         <f t="shared" si="8"/>
         <v>0.9671999999881109</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5" s="60" t="str">
+        <f>IF($AO5&lt;&gt;"OK", 0, IF($AP5&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AN5" s="60" t="str">
+        <f>IF($AO5&lt;&gt;"OK", 0, IF($AP5&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AO5" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP5" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>229</v>
       </c>
@@ -3272,8 +3674,10 @@
         <f t="shared" si="8"/>
         <v>0.70199999999260854</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6"/>
+      <c r="AN6"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>229</v>
       </c>
@@ -3368,8 +3772,22 @@
         <f t="shared" si="8"/>
         <v>0.90800000000115233</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM7" s="60" t="str">
+        <f>IF($AO7&lt;&gt;"OK", 0, IF($AP7&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AN7" s="60" t="str">
+        <f>IF($AO7&lt;&gt;"OK", 0, IF($AP7&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AO7" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP7" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>229</v>
       </c>
@@ -3462,8 +3880,10 @@
         <f t="shared" ref="AH8:AH71" si="12">IF($B8="LOC", ABS((AB8-F8)*3600), IF($B8="GS", ABS((AB8-F8)*3600), 0))</f>
         <v>6.8000000254642146E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8"/>
+      <c r="AN8"/>
+    </row>
+    <row r="9" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>229</v>
       </c>
@@ -3567,8 +3987,10 @@
         <f>ABS(AB9-F9)*3600</f>
         <v>7.200000007401286E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM9"/>
+      <c r="AN9"/>
+    </row>
+    <row r="10" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>229</v>
       </c>
@@ -3674,8 +4096,10 @@
         <f t="shared" ref="AJ10:AJ16" si="19">ABS(AB10-F10)*3600</f>
         <v>7.200000007401286E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM10"/>
+      <c r="AN10"/>
+    </row>
+    <row r="11" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>229</v>
       </c>
@@ -3779,8 +4203,10 @@
         <f t="shared" si="19"/>
         <v>6.0000000104309947E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11"/>
+      <c r="AN11"/>
+    </row>
+    <row r="12" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>229</v>
       </c>
@@ -3886,8 +4312,10 @@
         <f t="shared" si="19"/>
         <v>6.0000000104309947E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM12"/>
+      <c r="AN12"/>
+    </row>
+    <row r="13" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>229</v>
       </c>
@@ -3991,8 +4419,10 @@
         <f t="shared" si="19"/>
         <v>2.0000000120035111E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM13"/>
+      <c r="AN13"/>
+    </row>
+    <row r="14" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>229</v>
       </c>
@@ -4098,8 +4528,10 @@
         <f t="shared" si="19"/>
         <v>2.0000000120035111E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM14"/>
+      <c r="AN14"/>
+    </row>
+    <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>229</v>
       </c>
@@ -4203,8 +4635,10 @@
         <f t="shared" si="19"/>
         <v>7.9999998945368134E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM15"/>
+      <c r="AN15"/>
+    </row>
+    <row r="16" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>229</v>
       </c>
@@ -4310,8 +4744,10 @@
         <f t="shared" si="19"/>
         <v>7.9999998945368134E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM16"/>
+      <c r="AN16"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>229</v>
       </c>
@@ -4405,8 +4841,22 @@
         <f t="shared" si="12"/>
         <v>3.9999998193707142E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM17" s="60">
+        <f>IF($AO17&lt;&gt;"OK", 0, IF($AP17&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="60">
+        <f>IF($AO17&lt;&gt;"OK", 0, IF($AP17&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP17" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>229</v>
       </c>
@@ -4498,8 +4948,10 @@
         <f t="shared" si="12"/>
         <v>1.9999999864239726E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM18"/>
+      <c r="AN18"/>
+    </row>
+    <row r="19" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>229</v>
       </c>
@@ -4603,8 +5055,10 @@
         <f>ABS(AB19-F19)*3600</f>
         <v>1.9999999864239726E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM19"/>
+      <c r="AN19"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>229</v>
       </c>
@@ -4698,8 +5152,22 @@
         <f t="shared" si="12"/>
         <v>1.6079999999817574</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM20" s="60" t="str">
+        <f>IF($AO20&lt;&gt;"OK", 0, IF($AP20&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AN20" s="60" t="str">
+        <f>IF($AO20&lt;&gt;"OK", 0, IF($AP20&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AO20" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP20" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>229</v>
       </c>
@@ -4791,8 +5259,10 @@
         <f t="shared" si="12"/>
         <v>1.5999999789073627E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM21"/>
+      <c r="AN21"/>
+    </row>
+    <row r="22" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>229</v>
       </c>
@@ -4896,8 +5366,10 @@
         <f>ABS(AB22-F22)*3600</f>
         <v>1.5999999789073627E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM22"/>
+      <c r="AN22"/>
+    </row>
+    <row r="23" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>229</v>
       </c>
@@ -5001,8 +5473,10 @@
         <f t="shared" ref="AJ23:AJ26" si="22">ABS(AB23-F23)*3600</f>
         <v>7.9999998945368134E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM23"/>
+      <c r="AN23"/>
+    </row>
+    <row r="24" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>229</v>
       </c>
@@ -5108,8 +5582,10 @@
         <f t="shared" si="22"/>
         <v>7.9999998945368134E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM24"/>
+      <c r="AN24"/>
+    </row>
+    <row r="25" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>229</v>
       </c>
@@ -5213,8 +5689,10 @@
         <f t="shared" si="22"/>
         <v>3.2000000089738023E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM25"/>
+      <c r="AN25"/>
+    </row>
+    <row r="26" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>229</v>
       </c>
@@ -5320,8 +5798,10 @@
         <f t="shared" si="22"/>
         <v>3.2000000089738023E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM26"/>
+      <c r="AN26"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>230</v>
       </c>
@@ -5415,8 +5895,22 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM27" s="60" t="str">
+        <f>IF($AO27&lt;&gt;"OK", 0, IF($AP27&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AN27" s="60" t="str">
+        <f>IF($AO27&lt;&gt;"OK", 0, IF($AP27&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AO27" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP27" s="61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>230</v>
       </c>
@@ -5508,8 +6002,10 @@
         <f t="shared" si="12"/>
         <v>0.39840000001731823</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM28"/>
+      <c r="AN28"/>
+    </row>
+    <row r="29" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>230</v>
       </c>
@@ -5613,8 +6109,10 @@
         <f t="shared" ref="AJ29:AJ32" si="24">ABS(AB29-F29)*3600</f>
         <v>7.200000007401286E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM29"/>
+      <c r="AN29"/>
+    </row>
+    <row r="30" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>230</v>
       </c>
@@ -5720,8 +6218,10 @@
         <f t="shared" si="24"/>
         <v>7.200000007401286E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM30"/>
+      <c r="AN30"/>
+    </row>
+    <row r="31" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>230</v>
       </c>
@@ -5825,8 +6325,10 @@
         <f t="shared" si="24"/>
         <v>1.1599999987765841E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM31"/>
+      <c r="AN31"/>
+    </row>
+    <row r="32" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>230</v>
       </c>
@@ -5932,8 +6434,10 @@
         <f t="shared" si="24"/>
         <v>1.1599999987765841E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM32"/>
+      <c r="AN32"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>230</v>
       </c>
@@ -6027,8 +6531,22 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM33" s="60" t="str">
+        <f>IF($AO33&lt;&gt;"OK", 0, IF($AP33&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AN33" s="60" t="str">
+        <f>IF($AO33&lt;&gt;"OK", 0, IF($AP33&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AO33" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP33" s="57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>230</v>
       </c>
@@ -6120,8 +6638,10 @@
         <f t="shared" si="12"/>
         <v>0.28959999999358388</v>
       </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM34"/>
+      <c r="AN34"/>
+    </row>
+    <row r="35" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>230</v>
       </c>
@@ -6225,8 +6745,10 @@
         <f t="shared" ref="AJ35:AJ38" si="26">ABS(AB35-F35)*3600</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM35"/>
+      <c r="AN35"/>
+    </row>
+    <row r="36" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>230</v>
       </c>
@@ -6332,8 +6854,10 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM36"/>
+      <c r="AN36"/>
+    </row>
+    <row r="37" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>230</v>
       </c>
@@ -6437,8 +6961,10 @@
         <f t="shared" si="26"/>
         <v>3.9999998193707142E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM37"/>
+      <c r="AN37"/>
+    </row>
+    <row r="38" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>230</v>
       </c>
@@ -6544,8 +7070,10 @@
         <f t="shared" si="26"/>
         <v>3.9999998193707142E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM38"/>
+      <c r="AN38"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>230</v>
       </c>
@@ -6639,8 +7167,22 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM39" s="60" t="str">
+        <f>IF($AO39&lt;&gt;"OK", 0, IF($AP39&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AN39" s="60" t="str">
+        <f>IF($AO39&lt;&gt;"OK", 0, IF($AP39&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AO39" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP39" s="61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>230</v>
       </c>
@@ -6732,8 +7274,10 @@
         <f t="shared" si="12"/>
         <v>0.69399999999575357</v>
       </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM40"/>
+      <c r="AN40"/>
+    </row>
+    <row r="41" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>230</v>
       </c>
@@ -6837,8 +7381,10 @@
         <f t="shared" ref="AJ41:AJ44" si="29">ABS(AB41-F41)*3600</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM41"/>
+      <c r="AN41"/>
+    </row>
+    <row r="42" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>230</v>
       </c>
@@ -6944,8 +7490,10 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM42"/>
+      <c r="AN42"/>
+    </row>
+    <row r="43" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>230</v>
       </c>
@@ -7049,8 +7597,10 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM43"/>
+      <c r="AN43"/>
+    </row>
+    <row r="44" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>230</v>
       </c>
@@ -7156,8 +7706,10 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM44"/>
+      <c r="AN44"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>230</v>
       </c>
@@ -7251,8 +7803,22 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM45" s="60" t="str">
+        <f>IF($AO45&lt;&gt;"OK", 0, IF($AP45&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AN45" s="60" t="str">
+        <f>IF($AO45&lt;&gt;"OK", 0, IF($AP45&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AO45" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP45" s="57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>230</v>
       </c>
@@ -7344,8 +7910,10 @@
         <f t="shared" si="12"/>
         <v>9.959999997875002E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM46"/>
+      <c r="AN46"/>
+    </row>
+    <row r="47" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>230</v>
       </c>
@@ -7449,8 +8017,10 @@
         <f t="shared" ref="AJ47:AJ59" si="34">ABS(AB47-F47)*3600</f>
         <v>4.0000000240070221E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM47"/>
+      <c r="AN47"/>
+    </row>
+    <row r="48" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>230</v>
       </c>
@@ -7556,8 +8126,10 @@
         <f t="shared" si="34"/>
         <v>4.0000000240070221E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM48"/>
+      <c r="AN48"/>
+    </row>
+    <row r="49" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>230</v>
       </c>
@@ -7661,8 +8233,10 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM49"/>
+      <c r="AN49"/>
+    </row>
+    <row r="50" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>230</v>
       </c>
@@ -7768,8 +8342,10 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM50"/>
+      <c r="AN50"/>
+    </row>
+    <row r="51" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>126</v>
       </c>
@@ -7873,8 +8449,10 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM51"/>
+      <c r="AN51"/>
+    </row>
+    <row r="52" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>168</v>
       </c>
@@ -7978,8 +8556,10 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM52"/>
+      <c r="AN52"/>
+    </row>
+    <row r="53" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>129</v>
       </c>
@@ -8083,8 +8663,10 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM53"/>
+      <c r="AN53"/>
+    </row>
+    <row r="54" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>216</v>
       </c>
@@ -8188,8 +8770,10 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM54"/>
+      <c r="AN54"/>
+    </row>
+    <row r="55" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>199</v>
       </c>
@@ -8293,8 +8877,10 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM55"/>
+      <c r="AN55"/>
+    </row>
+    <row r="56" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>208</v>
       </c>
@@ -8398,8 +8984,10 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM56"/>
+      <c r="AN56"/>
+    </row>
+    <row r="57" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>188</v>
       </c>
@@ -8503,8 +9091,10 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM57"/>
+      <c r="AN57"/>
+    </row>
+    <row r="58" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>128</v>
       </c>
@@ -8608,8 +9198,10 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM58"/>
+      <c r="AN58"/>
+    </row>
+    <row r="59" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>130</v>
       </c>
@@ -8713,8 +9305,10 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM59"/>
+      <c r="AN59"/>
+    </row>
+    <row r="60" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>228</v>
       </c>
@@ -8818,8 +9412,10 @@
         <f t="shared" ref="AL60:AL61" si="36">ABS(AB60-F60)*3600</f>
         <v>2.400000019520121E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM60"/>
+      <c r="AN60"/>
+    </row>
+    <row r="61" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>228</v>
       </c>
@@ -8923,8 +9519,10 @@
         <f t="shared" si="36"/>
         <v>2.400000019520121E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM61"/>
+      <c r="AN61"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>228</v>
       </c>
@@ -9018,8 +9616,22 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM62" s="60">
+        <f>IF($AO62&lt;&gt;"OK", 0, IF($AP62&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN62" s="60">
+        <f>IF($AO62&lt;&gt;"OK", 0, IF($AP62&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO62" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP62" s="57" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>228</v>
       </c>
@@ -9111,8 +9723,10 @@
         <f t="shared" si="12"/>
         <v>0.30000000000995897</v>
       </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM63"/>
+      <c r="AN63"/>
+    </row>
+    <row r="64" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>228</v>
       </c>
@@ -9216,8 +9830,10 @@
         <f>ABS(AB64-F64)*3600</f>
         <v>0.30000000000995897</v>
       </c>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM64"/>
+      <c r="AN64"/>
+    </row>
+    <row r="65" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>228</v>
       </c>
@@ -9321,8 +9937,10 @@
         <f t="shared" ref="AJ65:AJ66" si="38">ABS(AB65-F65)*3600</f>
         <v>1.1999999969702912E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM65"/>
+      <c r="AN65"/>
+    </row>
+    <row r="66" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>228</v>
       </c>
@@ -9428,8 +10046,10 @@
         <f t="shared" si="38"/>
         <v>1.1999999969702912E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM66"/>
+      <c r="AN66"/>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>228</v>
       </c>
@@ -9523,8 +10143,22 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM67" s="60">
+        <f>IF($AO67&lt;&gt;"OK", 0, IF($AP67&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN67" s="60">
+        <f>IF($AO67&lt;&gt;"OK", 0, IF($AP67&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO67" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP67" s="57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>228</v>
       </c>
@@ -9616,8 +10250,10 @@
         <f t="shared" si="12"/>
         <v>0.20600000000854379</v>
       </c>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM68"/>
+      <c r="AN68"/>
+    </row>
+    <row r="69" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>228</v>
       </c>
@@ -9721,8 +10357,10 @@
         <f>ABS(AB69-F69)*3600</f>
         <v>0.20600000000854379</v>
       </c>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM69"/>
+      <c r="AN69"/>
+    </row>
+    <row r="70" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>228</v>
       </c>
@@ -9826,8 +10464,10 @@
         <f t="shared" ref="AJ70:AJ71" si="43">ABS(AB70-F70)*3600</f>
         <v>3.6000000164904122E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM70"/>
+      <c r="AN70"/>
+    </row>
+    <row r="71" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>228</v>
       </c>
@@ -9933,8 +10573,10 @@
         <f t="shared" si="43"/>
         <v>3.6000000164904122E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM71"/>
+      <c r="AN71"/>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>228</v>
       </c>
@@ -10028,8 +10670,22 @@
         <f t="shared" ref="AH72:AH130" si="46">IF($B72="LOC", ABS((AB72-F72)*3600), IF($B72="GS", ABS((AB72-F72)*3600), 0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM72" s="60">
+        <f>IF($AO72&lt;&gt;"OK", 0, IF($AP72&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN72" s="60">
+        <f>IF($AO72&lt;&gt;"OK", 0, IF($AP72&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO72" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="AP72" s="57" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>228</v>
       </c>
@@ -10121,8 +10777,10 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM73"/>
+      <c r="AN73"/>
+    </row>
+    <row r="74" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>228</v>
       </c>
@@ -10226,8 +10884,10 @@
         <f>ABS(AB74-F74)*3600</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM74"/>
+      <c r="AN74"/>
+    </row>
+    <row r="75" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>228</v>
       </c>
@@ -10331,8 +10991,10 @@
         <f t="shared" ref="AJ75:AJ76" si="49">ABS(AB75-F75)*3600</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM75"/>
+      <c r="AN75"/>
+    </row>
+    <row r="76" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>228</v>
       </c>
@@ -10438,8 +11100,10 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM76"/>
+      <c r="AN76"/>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>228</v>
       </c>
@@ -10533,8 +11197,22 @@
         <f t="shared" si="46"/>
         <v>0.10800000000870114</v>
       </c>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM77" s="60" t="str">
+        <f>IF($AO77&lt;&gt;"OK", 0, IF($AP77&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AN77" s="60" t="str">
+        <f>IF($AO77&lt;&gt;"OK", 0, IF($AP77&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AO77" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP77" s="57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>228</v>
       </c>
@@ -10626,8 +11304,10 @@
         <f t="shared" si="46"/>
         <v>0.90120000000126765</v>
       </c>
-    </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM78"/>
+      <c r="AN78"/>
+    </row>
+    <row r="79" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>228</v>
       </c>
@@ -10731,8 +11411,10 @@
         <f>ABS(AB79-F79)*3600</f>
         <v>0.90120000000126765</v>
       </c>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM79"/>
+      <c r="AN79"/>
+    </row>
+    <row r="80" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>228</v>
       </c>
@@ -10836,8 +11518,10 @@
         <f t="shared" ref="AJ80:AJ88" si="54">ABS(AB80-F80)*3600</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM80"/>
+      <c r="AN80"/>
+    </row>
+    <row r="81" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>228</v>
       </c>
@@ -10943,8 +11627,10 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM81"/>
+      <c r="AN81"/>
+    </row>
+    <row r="82" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>232</v>
       </c>
@@ -11048,8 +11734,10 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM82"/>
+      <c r="AN82"/>
+    </row>
+    <row r="83" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>232</v>
       </c>
@@ -11155,8 +11843,10 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM83"/>
+      <c r="AN83"/>
+    </row>
+    <row r="84" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>232</v>
       </c>
@@ -11260,8 +11950,10 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM84"/>
+      <c r="AN84"/>
+    </row>
+    <row r="85" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>232</v>
       </c>
@@ -11367,8 +12059,10 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM85"/>
+      <c r="AN85"/>
+    </row>
+    <row r="86" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>210</v>
       </c>
@@ -11472,8 +12166,10 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM86"/>
+      <c r="AN86"/>
+    </row>
+    <row r="87" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>178</v>
       </c>
@@ -11577,8 +12273,10 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM87"/>
+      <c r="AN87"/>
+    </row>
+    <row r="88" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>124</v>
       </c>
@@ -11682,8 +12380,10 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM88"/>
+      <c r="AN88"/>
+    </row>
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>235</v>
       </c>
@@ -11759,8 +12459,22 @@
       </c>
       <c r="AG89" s="10"/>
       <c r="AH89" s="10"/>
-    </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM89" s="60" t="str">
+        <f>IF($AO89&lt;&gt;"OK", 0, IF($AP89&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AN89" s="60" t="str">
+        <f>IF($AO89&lt;&gt;"OK", 0, IF($AP89&lt;&gt;"OK", 0,"X"))</f>
+        <v>X</v>
+      </c>
+      <c r="AO89" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP89" s="57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>235</v>
       </c>
@@ -11834,8 +12548,10 @@
       </c>
       <c r="AG90" s="10"/>
       <c r="AH90" s="10"/>
-    </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM90"/>
+      <c r="AN90"/>
+    </row>
+    <row r="91" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>235</v>
       </c>
@@ -11939,8 +12655,10 @@
         <f t="shared" ref="AJ91:AJ98" si="60">ABS(AB91-F91)*3600</f>
         <v>2.0000000120035111E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM91"/>
+      <c r="AN91"/>
+    </row>
+    <row r="92" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>235</v>
       </c>
@@ -12046,8 +12764,10 @@
         <f t="shared" si="60"/>
         <v>2.0000000120035111E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM92"/>
+      <c r="AN92"/>
+    </row>
+    <row r="93" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>235</v>
       </c>
@@ -12151,8 +12871,10 @@
         <f t="shared" si="60"/>
         <v>6.7999999998846761E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM93"/>
+      <c r="AN93"/>
+    </row>
+    <row r="94" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>235</v>
       </c>
@@ -12258,8 +12980,10 @@
         <f t="shared" si="60"/>
         <v>6.7999999998846761E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM94"/>
+      <c r="AN94"/>
+    </row>
+    <row r="95" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>235</v>
       </c>
@@ -12363,8 +13087,10 @@
         <f t="shared" si="60"/>
         <v>4.0000000751660991E-4</v>
       </c>
-    </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM95"/>
+      <c r="AN95"/>
+    </row>
+    <row r="96" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>235</v>
       </c>
@@ -12470,8 +13196,10 @@
         <f t="shared" si="60"/>
         <v>4.0000000751660991E-4</v>
       </c>
-    </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM96"/>
+      <c r="AN96"/>
+    </row>
+    <row r="97" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>235</v>
       </c>
@@ -12575,8 +13303,10 @@
         <f t="shared" si="60"/>
         <v>6.3999999923680662E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM97"/>
+      <c r="AN97"/>
+    </row>
+    <row r="98" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>235</v>
       </c>
@@ -12682,8 +13412,10 @@
         <f t="shared" si="60"/>
         <v>6.3999999923680662E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM98"/>
+      <c r="AN98"/>
+    </row>
+    <row r="99" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>237</v>
       </c>
@@ -12787,8 +13519,10 @@
         <f t="shared" ref="AL99:AL100" si="62">ABS(AB99-F99)*3600</f>
         <v>4.4000000059440936E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM99"/>
+      <c r="AN99"/>
+    </row>
+    <row r="100" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>237</v>
       </c>
@@ -12892,8 +13626,10 @@
         <f t="shared" si="62"/>
         <v>4.4000000059440936E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM100"/>
+      <c r="AN100"/>
+    </row>
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>237</v>
       </c>
@@ -12969,8 +13705,18 @@
       </c>
       <c r="AG101" s="10"/>
       <c r="AH101" s="10"/>
-    </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM101" s="60">
+        <f>IF($AO101&lt;&gt;"OK", 0, IF($AP101&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN101" s="60">
+        <f>IF($AO101&lt;&gt;"OK", 0, IF($AP101&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO101" s="57"/>
+      <c r="AP101" s="57"/>
+    </row>
+    <row r="102" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>237</v>
       </c>
@@ -13044,8 +13790,10 @@
       </c>
       <c r="AG102" s="10"/>
       <c r="AH102" s="10"/>
-    </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM102"/>
+      <c r="AN102"/>
+    </row>
+    <row r="103" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>237</v>
       </c>
@@ -13125,8 +13873,10 @@
       <c r="AH103" s="10"/>
       <c r="AK103" s="10"/>
       <c r="AL103" s="10"/>
-    </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM103"/>
+      <c r="AN103"/>
+    </row>
+    <row r="104" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>237</v>
       </c>
@@ -13230,8 +13980,10 @@
         <f t="shared" ref="AJ104:AJ130" si="67">ABS(AB104-F104)*3600</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM104"/>
+      <c r="AN104"/>
+    </row>
+    <row r="105" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>237</v>
       </c>
@@ -13337,8 +14089,10 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM105"/>
+      <c r="AN105"/>
+    </row>
+    <row r="106" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>237</v>
       </c>
@@ -13442,8 +14196,10 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM106"/>
+      <c r="AN106"/>
+    </row>
+    <row r="107" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>237</v>
       </c>
@@ -13549,8 +14305,10 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM107"/>
+      <c r="AN107"/>
+    </row>
+    <row r="108" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>237</v>
       </c>
@@ -13654,8 +14412,10 @@
         <f t="shared" si="67"/>
         <v>2.3999999939405825E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM108"/>
+      <c r="AN108"/>
+    </row>
+    <row r="109" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>237</v>
       </c>
@@ -13761,8 +14521,10 @@
         <f t="shared" si="67"/>
         <v>2.3999999939405825E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM109"/>
+      <c r="AN109"/>
+    </row>
+    <row r="110" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>237</v>
       </c>
@@ -13866,8 +14628,10 @@
         <f t="shared" si="67"/>
         <v>1.120000000582877E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM110"/>
+      <c r="AN110"/>
+    </row>
+    <row r="111" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>237</v>
       </c>
@@ -13973,8 +14737,10 @@
         <f t="shared" si="67"/>
         <v>1.120000000582877E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM111"/>
+      <c r="AN111"/>
+    </row>
+    <row r="112" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>214</v>
       </c>
@@ -14078,8 +14844,10 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM112"/>
+      <c r="AN112"/>
+    </row>
+    <row r="113" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>123</v>
       </c>
@@ -14129,6 +14897,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S113" s="2"/>
       <c r="U113" s="5">
         <v>56</v>
       </c>
@@ -14184,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>127</v>
       </c>
@@ -14234,6 +15003,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S114" s="2"/>
       <c r="U114" s="5">
         <v>55</v>
       </c>
@@ -14289,7 +15059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>170</v>
       </c>
@@ -14339,6 +15109,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S115" s="2"/>
       <c r="U115" s="5">
         <v>57</v>
       </c>
@@ -14394,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>201</v>
       </c>
@@ -14444,6 +15215,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S116" s="2"/>
       <c r="U116" s="5">
         <v>54</v>
       </c>
@@ -14499,7 +15271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>187</v>
       </c>
@@ -14549,6 +15321,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S117" s="2"/>
       <c r="U117" s="5">
         <v>55</v>
       </c>
@@ -14604,7 +15377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>212</v>
       </c>
@@ -14654,6 +15427,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S118" s="2"/>
       <c r="U118" s="5">
         <v>56</v>
       </c>
@@ -14709,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>176</v>
       </c>
@@ -14759,6 +15533,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S119" s="2"/>
       <c r="U119" s="5">
         <v>55</v>
       </c>
@@ -14814,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>125</v>
       </c>
@@ -14864,6 +15639,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S120" s="2"/>
       <c r="U120" s="5">
         <v>54</v>
       </c>
@@ -14919,7 +15695,7 @@
         <v>3.9999999984274837E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>203</v>
       </c>
@@ -14969,6 +15745,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S121" s="2"/>
       <c r="U121" s="5">
         <v>54</v>
       </c>
@@ -15024,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>206</v>
       </c>
@@ -15074,6 +15851,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S122" s="2"/>
       <c r="U122" s="5">
         <v>54</v>
       </c>
@@ -15129,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>233</v>
       </c>
@@ -15179,6 +15957,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S123" s="2"/>
       <c r="U123" s="5">
         <v>55</v>
       </c>
@@ -15230,7 +16009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>233</v>
       </c>
@@ -15282,6 +16061,7 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
+      <c r="S124" s="2"/>
       <c r="U124" s="30">
         <v>55</v>
       </c>
@@ -15333,7 +16113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>233</v>
       </c>
@@ -15383,6 +16163,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S125" s="2"/>
       <c r="T125" s="36" t="s">
         <v>264</v>
       </c>
@@ -15441,7 +16222,7 @@
         <v>3.9999999984274837E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>233</v>
       </c>
@@ -15493,6 +16274,7 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
+      <c r="S126" s="2"/>
       <c r="T126" s="36" t="s">
         <v>264</v>
       </c>
@@ -15551,7 +16333,7 @@
         <v>3.9999999984274837E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>233</v>
       </c>
@@ -15601,6 +16383,7 @@
         <f t="shared" si="68"/>
         <v>X</v>
       </c>
+      <c r="S127" s="2"/>
       <c r="U127" s="5">
         <v>55</v>
       </c>
@@ -15652,7 +16435,7 @@
         <v>1.1999999995282451E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>233</v>
       </c>
@@ -15704,6 +16487,7 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
+      <c r="S128" s="2"/>
       <c r="U128" s="30">
         <v>55</v>
       </c>
@@ -15755,7 +16539,7 @@
         <v>1.1999999995282451E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>233</v>
       </c>
@@ -15862,8 +16646,10 @@
         <f t="shared" si="67"/>
         <v>7.9999999968549673E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM129"/>
+      <c r="AN129"/>
+    </row>
+    <row r="130" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>233</v>
       </c>
@@ -15972,8 +16758,10 @@
         <f t="shared" si="67"/>
         <v>7.9999999968549673E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM130"/>
+      <c r="AN130"/>
+    </row>
+    <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>233</v>
       </c>
@@ -16049,8 +16837,18 @@
       </c>
       <c r="AG131" s="10"/>
       <c r="AH131" s="10"/>
-    </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM131" s="60">
+        <f>IF($AO131&lt;&gt;"OK", 0, IF($AP131&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN131" s="60">
+        <f>IF($AO131&lt;&gt;"OK", 0, IF($AP131&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO131" s="57"/>
+      <c r="AP131" s="57"/>
+    </row>
+    <row r="132" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>233</v>
       </c>
@@ -16125,8 +16923,10 @@
       </c>
       <c r="AG132" s="10"/>
       <c r="AH132" s="10"/>
-    </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM132"/>
+      <c r="AN132"/>
+    </row>
+    <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>233</v>
       </c>
@@ -16202,8 +17002,18 @@
       </c>
       <c r="AG133" s="10"/>
       <c r="AH133" s="10"/>
-    </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM133" s="60">
+        <f>IF($AO133&lt;&gt;"OK", 0, IF($AP133&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN133" s="60">
+        <f>IF($AO133&lt;&gt;"OK", 0, IF($AP133&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO133" s="57"/>
+      <c r="AP133" s="57"/>
+    </row>
+    <row r="134" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>233</v>
       </c>
@@ -16278,8 +17088,10 @@
       </c>
       <c r="AG134" s="10"/>
       <c r="AH134" s="10"/>
-    </row>
-    <row r="135" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM134"/>
+      <c r="AN134"/>
+    </row>
+    <row r="135" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>236</v>
       </c>
@@ -16357,8 +17169,10 @@
       </c>
       <c r="AG135" s="10"/>
       <c r="AH135" s="10"/>
-    </row>
-    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM135"/>
+      <c r="AN135"/>
+    </row>
+    <row r="136" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>236</v>
       </c>
@@ -16438,8 +17252,10 @@
       </c>
       <c r="AG136" s="10"/>
       <c r="AH136" s="10"/>
-    </row>
-    <row r="137" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM136"/>
+      <c r="AN136"/>
+    </row>
+    <row r="137" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>236</v>
       </c>
@@ -16517,8 +17333,10 @@
       </c>
       <c r="AG137" s="10"/>
       <c r="AH137" s="10"/>
-    </row>
-    <row r="138" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM137"/>
+      <c r="AN137"/>
+    </row>
+    <row r="138" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>236</v>
       </c>
@@ -16598,8 +17416,10 @@
       </c>
       <c r="AG138" s="10"/>
       <c r="AH138" s="10"/>
-    </row>
-    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM138"/>
+      <c r="AN138"/>
+    </row>
+    <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>236</v>
       </c>
@@ -16675,8 +17495,18 @@
       </c>
       <c r="AG139" s="10"/>
       <c r="AH139" s="10"/>
-    </row>
-    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM139" s="60">
+        <f>IF($AO139&lt;&gt;"OK", 0, IF($AP139&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN139" s="60">
+        <f>IF($AO139&lt;&gt;"OK", 0, IF($AP139&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO139" s="57"/>
+      <c r="AP139" s="57"/>
+    </row>
+    <row r="140" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>236</v>
       </c>
@@ -16750,8 +17580,10 @@
       </c>
       <c r="AG140" s="10"/>
       <c r="AH140" s="10"/>
-    </row>
-    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM140"/>
+      <c r="AN140"/>
+    </row>
+    <row r="141" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>236</v>
       </c>
@@ -16829,8 +17661,10 @@
       </c>
       <c r="AG141" s="10"/>
       <c r="AH141" s="10"/>
-    </row>
-    <row r="142" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM141"/>
+      <c r="AN141"/>
+    </row>
+    <row r="142" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>236</v>
       </c>
@@ -16910,8 +17744,10 @@
       </c>
       <c r="AG142" s="10"/>
       <c r="AH142" s="10"/>
-    </row>
-    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM142"/>
+      <c r="AN142"/>
+    </row>
+    <row r="143" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>236</v>
       </c>
@@ -16989,8 +17825,10 @@
       </c>
       <c r="AG143" s="10"/>
       <c r="AH143" s="10"/>
-    </row>
-    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM143"/>
+      <c r="AN143"/>
+    </row>
+    <row r="144" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>236</v>
       </c>
@@ -17070,8 +17908,10 @@
       </c>
       <c r="AG144" s="10"/>
       <c r="AH144" s="10"/>
-    </row>
-    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM144"/>
+      <c r="AN144"/>
+    </row>
+    <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>236</v>
       </c>
@@ -17147,8 +17987,18 @@
       </c>
       <c r="AG145" s="10"/>
       <c r="AH145" s="10"/>
-    </row>
-    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM145" s="60">
+        <f>IF($AO145&lt;&gt;"OK", 0, IF($AP145&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN145" s="60">
+        <f>IF($AO145&lt;&gt;"OK", 0, IF($AP145&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO145" s="57"/>
+      <c r="AP145" s="57"/>
+    </row>
+    <row r="146" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>236</v>
       </c>
@@ -17222,8 +18072,10 @@
       </c>
       <c r="AG146" s="10"/>
       <c r="AH146" s="10"/>
-    </row>
-    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM146"/>
+      <c r="AN146"/>
+    </row>
+    <row r="147" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
         <v>236</v>
       </c>
@@ -17301,8 +18153,10 @@
       </c>
       <c r="AG147" s="10"/>
       <c r="AH147" s="10"/>
-    </row>
-    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM147"/>
+      <c r="AN147"/>
+    </row>
+    <row r="148" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>236</v>
       </c>
@@ -17382,8 +18236,10 @@
       </c>
       <c r="AG148" s="10"/>
       <c r="AH148" s="10"/>
-    </row>
-    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM148"/>
+      <c r="AN148"/>
+    </row>
+    <row r="149" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>236</v>
       </c>
@@ -17461,8 +18317,10 @@
       </c>
       <c r="AG149" s="10"/>
       <c r="AH149" s="10"/>
-    </row>
-    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM149"/>
+      <c r="AN149"/>
+    </row>
+    <row r="150" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>236</v>
       </c>
@@ -17542,8 +18400,10 @@
       </c>
       <c r="AG150" s="10"/>
       <c r="AH150" s="10"/>
-    </row>
-    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM150"/>
+      <c r="AN150"/>
+    </row>
+    <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>236</v>
       </c>
@@ -17619,8 +18479,18 @@
       </c>
       <c r="AG151" s="10"/>
       <c r="AH151" s="10"/>
-    </row>
-    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM151" s="60">
+        <f>IF($AO151&lt;&gt;"OK", 0, IF($AP151&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN151" s="60">
+        <f>IF($AO151&lt;&gt;"OK", 0, IF($AP151&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO151" s="57"/>
+      <c r="AP151" s="57"/>
+    </row>
+    <row r="152" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>236</v>
       </c>
@@ -17694,8 +18564,10 @@
       </c>
       <c r="AG152" s="10"/>
       <c r="AH152" s="10"/>
-    </row>
-    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM152"/>
+      <c r="AN152"/>
+    </row>
+    <row r="153" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>236</v>
       </c>
@@ -17773,8 +18645,10 @@
       </c>
       <c r="AG153" s="10"/>
       <c r="AH153" s="10"/>
-    </row>
-    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM153"/>
+      <c r="AN153"/>
+    </row>
+    <row r="154" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>236</v>
       </c>
@@ -17854,8 +18728,10 @@
       </c>
       <c r="AG154" s="10"/>
       <c r="AH154" s="10"/>
-    </row>
-    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM154"/>
+      <c r="AN154"/>
+    </row>
+    <row r="155" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>236</v>
       </c>
@@ -17933,8 +18809,10 @@
       </c>
       <c r="AG155" s="10"/>
       <c r="AH155" s="10"/>
-    </row>
-    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AM155"/>
+      <c r="AN155"/>
+    </row>
+    <row r="156" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>236</v>
       </c>
@@ -18014,20 +18892,22 @@
       </c>
       <c r="AG156" s="10"/>
       <c r="AH156" s="10"/>
-    </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM156"/>
+      <c r="AN156"/>
+    </row>
+    <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="K157" s="4"/>
       <c r="O157" s="4"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="K158" s="4"/>
       <c r="O158" s="4"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="K159" s="4"/>
       <c r="O159" s="4"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.25">
       <c r="K160" s="4"/>
       <c r="O160" s="4"/>
     </row>
@@ -19644,22 +20524,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:S156">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="UUBB"/>
-        <filter val="UUBW"/>
-        <filter val="UUDD"/>
-        <filter val="UUEE"/>
-        <filter val="UUMB"/>
-        <filter val="UUMO"/>
-        <filter val="UUWW"/>
+        <filter val="LOC"/>
       </filters>
     </filterColumn>
     <sortState ref="A9:S130">
       <sortCondition ref="A2:A156"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="B1:G1"/>
@@ -19669,25 +20545,25 @@
     <mergeCell ref="AG1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="AG3:AH156">
-    <cfRule type="cellIs" dxfId="5" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="25" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T4">
-    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:F155">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>AI9&gt;=0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>$AI$9&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19700,11 +20576,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AP15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane xSplit="17325" topLeftCell="AJ1"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="AO19" sqref="AO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19728,45 +20605,47 @@
     <col min="21" max="26" width="4.7109375" customWidth="1"/>
     <col min="27" max="29" width="9.7109375" customWidth="1"/>
     <col min="33" max="38" width="9.7109375" customWidth="1"/>
+    <col min="39" max="40" width="13.7109375" customWidth="1"/>
+    <col min="41" max="42" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
       <c r="T1" s="2"/>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46" t="s">
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
       <c r="AA1" s="6" t="s">
         <v>1</v>
       </c>
@@ -19782,20 +20661,28 @@
       <c r="AE1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="AG1" s="47" t="s">
+      <c r="AG1" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="46" t="s">
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46" t="s">
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="AL1" s="46"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP1" s="66"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -19897,8 +20784,20 @@
       <c r="AL2" s="43" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2" s="57" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN2" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="AO2" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP2" s="57" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>255</v>
       </c>
@@ -19995,8 +20894,18 @@
         <f>IF($B3="LOC", ABS((AB3-F3)*3600), IF($B3="GS", ABS((AB3-F3)*3600), 0))</f>
         <v>1.1999999995282451E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3" s="60">
+        <f>IF($AO3&lt;&gt;"OK", 0, IF($AP3&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="60">
+        <f>IF($AO3&lt;&gt;"OK", 0, IF($AP3&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>255</v>
       </c>
@@ -20092,7 +21001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>255</v>
       </c>
@@ -20192,7 +21101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>255</v>
       </c>
@@ -20289,8 +21198,18 @@
         <f t="shared" ref="AH6:AH7" si="10">IF($B6="LOC", ABS((AB6-F6)*3600), IF($B6="GS", ABS((AB6-F6)*3600), 0))</f>
         <v>143856</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6" s="60">
+        <f>IF($AO6&lt;&gt;"OK", 0, IF($AP6&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="60">
+        <f>IF($AO6&lt;&gt;"OK", 0, IF($AP6&lt;&gt;"OK", 0,"X"))</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>255</v>
       </c>
@@ -20386,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>255</v>
       </c>
@@ -20468,7 +21387,7 @@
       <c r="AK8" s="10"/>
       <c r="AL8" s="10"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>255</v>
       </c>
@@ -20560,15 +21479,15 @@
         <v>X</v>
       </c>
       <c r="AK9" s="10">
-        <f t="shared" ref="AK8:AK9" si="11">ABS(AA9-E9)*3600</f>
+        <f t="shared" ref="AK9" si="11">ABS(AA9-E9)*3600</f>
         <v>0</v>
       </c>
       <c r="AL9" s="10">
-        <f t="shared" ref="AL8:AL9" si="12">ABS(AB9-F9)*3600</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AL9" si="12">ABS(AB9-F9)*3600</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>271</v>
       </c>
@@ -20668,7 +21587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>265</v>
       </c>
@@ -20760,15 +21679,15 @@
         <v>X</v>
       </c>
       <c r="AI11" s="10">
-        <f t="shared" ref="AI11:AI15" si="13">ABS(AA11-E11)*3600</f>
+        <f t="shared" ref="AI11:AI14" si="13">ABS(AA11-E11)*3600</f>
         <v>1.5999999993709935E-2</v>
       </c>
       <c r="AJ11" s="10">
-        <f t="shared" ref="AJ11:AJ15" si="14">ABS(AB11-F11)*3600</f>
+        <f t="shared" ref="AJ11:AJ14" si="14">ABS(AB11-F11)*3600</f>
         <v>1.2000000020861989E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>266</v>
       </c>
@@ -20868,7 +21787,7 @@
         <v>7.9999999968549673E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>267</v>
       </c>
@@ -20968,7 +21887,7 @@
         <v>7.9999999968549673E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>267</v>
       </c>
@@ -21068,7 +21987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>268</v>
       </c>
@@ -21170,7 +22089,9 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="B1:G1"/>
@@ -21180,7 +22101,7 @@
     <mergeCell ref="AG1:AH1"/>
   </mergeCells>
   <conditionalFormatting sqref="AG3:AH4 AG6:AH7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21345,53 +22266,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="10.7109375" style="60" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="56" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
     <col min="4" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" style="56" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="52" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="47" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="52" t="s">
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="49" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="45" t="s">
         <v>114</v>
       </c>
@@ -21410,14 +22348,27 @@
       <c r="I2" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="M2" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="54" t="s">
         <v>280</v>
       </c>
       <c r="C3" s="9">
@@ -21441,20 +22392,31 @@
       <c r="I3" s="43">
         <v>23</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="50">
         <f>D3+E3/60+F3/3600</f>
         <v>55.408611111111107</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="50">
         <f>G3+H3/60+I3/3600</f>
         <v>37.906388888888884</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="70" t="str">
+        <f>IF(L3="", " ", ABS(J3-L3)*3600)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O3" s="70" t="str">
+        <f>IF(M3="", " ", ABS(K3-M3)*3600)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P3" s="58"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="55" t="s">
         <v>282</v>
       </c>
       <c r="C4" s="43">
@@ -21478,20 +22440,37 @@
       <c r="I4" s="43">
         <v>29</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="50">
         <f t="shared" ref="J4:J39" si="0">D4+E4/60+F4/3600</f>
         <v>55.42305555555555</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="50">
         <f t="shared" ref="K4:K39" si="1">G4+H4/60+I4/3600</f>
         <v>37.908055555555556</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="62">
+        <v>55.422775000000001</v>
+      </c>
+      <c r="M4" s="62">
+        <v>37.908642</v>
+      </c>
+      <c r="N4" s="70">
+        <f t="shared" ref="N4:N8" si="2">IF(L4="", " ", ABS(J4-L4)*3600)</f>
+        <v>1.0099999999738429</v>
+      </c>
+      <c r="O4" s="70">
+        <f t="shared" ref="O4:O8" si="3">IF(M4="", " ", ABS(K4-M4)*3600)</f>
+        <v>2.1111999999988029</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="55" t="s">
         <v>283</v>
       </c>
       <c r="C5" s="43">
@@ -21515,20 +22494,37 @@
       <c r="I5" s="43">
         <v>31</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="50">
         <f t="shared" si="0"/>
         <v>55.394999999999996</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="50">
         <f t="shared" si="1"/>
         <v>37.941944444444438</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="62">
+        <v>55.394787000000001</v>
+      </c>
+      <c r="M5" s="62">
+        <v>37.941676999999999</v>
+      </c>
+      <c r="N5" s="70">
+        <f t="shared" si="2"/>
+        <v>0.76679999998248149</v>
+      </c>
+      <c r="O5" s="70">
+        <f t="shared" si="3"/>
+        <v>0.96279999998216681</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="55" t="s">
         <v>284</v>
       </c>
       <c r="C6" s="43">
@@ -21552,20 +22548,37 @@
       <c r="I6" s="43">
         <v>20</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="50">
         <f t="shared" si="0"/>
         <v>55.421111111111109</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="50">
         <f t="shared" si="1"/>
         <v>37.87222222222222</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="62">
+        <v>55.420921</v>
+      </c>
+      <c r="M6" s="62">
+        <v>37.872771999999998</v>
+      </c>
+      <c r="N6" s="70">
+        <f t="shared" si="2"/>
+        <v>0.6843999999944117</v>
+      </c>
+      <c r="O6" s="70">
+        <f t="shared" si="3"/>
+        <v>1.9791999999995369</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="55" t="s">
         <v>285</v>
       </c>
       <c r="C7" s="43">
@@ -21589,20 +22602,37 @@
       <c r="I7" s="43">
         <v>12</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="50">
         <f t="shared" si="0"/>
         <v>55.394999999999996</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="50">
         <f t="shared" si="1"/>
         <v>37.903333333333329</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="62">
+        <v>55.395164000000001</v>
+      </c>
+      <c r="M7" s="62">
+        <v>37.903213999999998</v>
+      </c>
+      <c r="N7" s="70">
+        <f t="shared" si="2"/>
+        <v>0.59040000001857607</v>
+      </c>
+      <c r="O7" s="70">
+        <f t="shared" si="3"/>
+        <v>0.42959999998970488</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>280</v>
       </c>
       <c r="C8" s="43">
@@ -21626,20 +22656,31 @@
       <c r="I8" s="43">
         <v>47</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="50">
         <f t="shared" si="0"/>
         <v>55.972500000000004</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="50">
         <f t="shared" si="1"/>
         <v>37.413055555555552</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O8" s="70" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P8" s="58"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="55" t="s">
         <v>286</v>
       </c>
       <c r="C9" s="43">
@@ -21663,20 +22704,37 @@
       <c r="I9" s="43">
         <v>11.55</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="50">
         <f t="shared" si="0"/>
         <v>55.967150000000004</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="50">
         <f t="shared" si="1"/>
         <v>37.386541666666666</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="62">
+        <v>55.967140000000001</v>
+      </c>
+      <c r="M9" s="62">
+        <v>37.386574000000003</v>
+      </c>
+      <c r="N9" s="70">
+        <f t="shared" ref="N9:N39" si="4">IF(L9="", " ", ABS(J9-L9)*3600)</f>
+        <v>3.6000000011426891E-2</v>
+      </c>
+      <c r="O9" s="70">
+        <f t="shared" ref="O9:O39" si="5">IF(M9="", " ", ABS(K9-M9)*3600)</f>
+        <v>0.11640000001307271</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="55" t="s">
         <v>287</v>
       </c>
       <c r="C10" s="43">
@@ -21700,20 +22758,37 @@
       <c r="I10" s="43">
         <v>37.69</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="50">
         <f t="shared" si="0"/>
         <v>55.975702777777776</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="50">
         <f t="shared" si="1"/>
         <v>37.443802777777776</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="62">
+        <v>55.975594000000001</v>
+      </c>
+      <c r="M10" s="62">
+        <v>37.443199</v>
+      </c>
+      <c r="N10" s="70">
+        <f t="shared" si="4"/>
+        <v>0.39159999999185402</v>
+      </c>
+      <c r="O10" s="70">
+        <f t="shared" si="5"/>
+        <v>2.1735999999947353</v>
+      </c>
+      <c r="P10" s="58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="55" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="43">
@@ -21737,20 +22812,37 @@
       <c r="I11" s="43">
         <v>12.98</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="50">
         <f t="shared" si="0"/>
         <v>55.969813888888893</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="50">
         <f t="shared" si="1"/>
         <v>37.386938888888885</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="62">
+        <v>55.969802999999999</v>
+      </c>
+      <c r="M11" s="62">
+        <v>37.386955</v>
+      </c>
+      <c r="N11" s="70">
+        <f t="shared" si="4"/>
+        <v>3.9200000020400694E-2</v>
+      </c>
+      <c r="O11" s="70">
+        <f t="shared" si="5"/>
+        <v>5.8000000015567821E-2</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="55" t="s">
         <v>289</v>
       </c>
       <c r="C12" s="43">
@@ -21774,20 +22866,37 @@
       <c r="I12" s="43">
         <v>30.77</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="50">
         <f t="shared" si="0"/>
         <v>55.978019444444449</v>
       </c>
-      <c r="K12" s="54">
+      <c r="K12" s="50">
         <f t="shared" si="1"/>
         <v>37.441880555555549</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="62">
+        <v>55.977913000000001</v>
+      </c>
+      <c r="M12" s="62">
+        <v>37.441276999999999</v>
+      </c>
+      <c r="N12" s="70">
+        <f t="shared" si="4"/>
+        <v>0.38320000001306198</v>
+      </c>
+      <c r="O12" s="70">
+        <f t="shared" si="5"/>
+        <v>2.1727999999797021</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="55" t="s">
         <v>280</v>
       </c>
       <c r="C13" s="43">
@@ -21811,20 +22920,31 @@
       <c r="I13" s="43">
         <v>23</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="50">
         <f t="shared" si="0"/>
         <v>55.599166666666669</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="50">
         <f t="shared" si="1"/>
         <v>37.273055555555551</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O13" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P13" s="58"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="55" t="s">
         <v>290</v>
       </c>
       <c r="C14" s="43">
@@ -21848,20 +22968,37 @@
       <c r="I14" s="43">
         <v>27.39</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="50">
         <f t="shared" si="0"/>
         <v>55.58656388888889</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="50">
         <f t="shared" si="1"/>
         <v>37.25760833333333</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="62">
+        <v>55.586478999999997</v>
+      </c>
+      <c r="M14" s="62">
+        <v>37.257438999999998</v>
+      </c>
+      <c r="N14" s="70">
+        <f t="shared" si="4"/>
+        <v>0.30560000001287335</v>
+      </c>
+      <c r="O14" s="70">
+        <f t="shared" si="5"/>
+        <v>0.60959999999568026</v>
+      </c>
+      <c r="P14" s="58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="55" t="s">
         <v>293</v>
       </c>
       <c r="C15" s="43">
@@ -21885,20 +23022,37 @@
       <c r="I15" s="43">
         <v>36.78</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="50">
         <f t="shared" si="0"/>
         <v>55.611788888888888</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="50">
         <f t="shared" si="1"/>
         <v>37.27688333333333</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="62">
+        <v>55.611370000000001</v>
+      </c>
+      <c r="M15" s="62">
+        <v>37.276423999999999</v>
+      </c>
+      <c r="N15" s="70">
+        <f t="shared" si="4"/>
+        <v>1.5079999999954907</v>
+      </c>
+      <c r="O15" s="70">
+        <f t="shared" si="5"/>
+        <v>1.6535999999945261</v>
+      </c>
+      <c r="P15" s="58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="55" t="s">
         <v>292</v>
       </c>
       <c r="C16" s="43">
@@ -21922,20 +23076,37 @@
       <c r="I16" s="43">
         <v>19.190000000000001</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="50">
         <f t="shared" si="0"/>
         <v>55.586452777777779</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="50">
         <f t="shared" si="1"/>
         <v>37.238663888888887</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="62">
+        <v>55.586216</v>
+      </c>
+      <c r="M16" s="62">
+        <v>37.238574999999997</v>
+      </c>
+      <c r="N16" s="70">
+        <f t="shared" si="4"/>
+        <v>0.85240000000510463</v>
+      </c>
+      <c r="O16" s="70">
+        <f t="shared" si="5"/>
+        <v>0.32000000000209639</v>
+      </c>
+      <c r="P16" s="58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="55" t="s">
         <v>291</v>
       </c>
       <c r="C17" s="43">
@@ -21959,20 +23130,37 @@
       <c r="I17" s="43">
         <v>24.93</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="50">
         <f t="shared" si="0"/>
         <v>55.598050000000001</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="50">
         <f t="shared" si="1"/>
         <v>37.290258333333334</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="62">
+        <v>55.597752</v>
+      </c>
+      <c r="M17" s="62">
+        <v>37.289676999999998</v>
+      </c>
+      <c r="N17" s="70">
+        <f t="shared" si="4"/>
+        <v>1.0728000000028715</v>
+      </c>
+      <c r="O17" s="70">
+        <f t="shared" si="5"/>
+        <v>2.0928000000111524</v>
+      </c>
+      <c r="P17" s="58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="55" t="s">
         <v>280</v>
       </c>
       <c r="C18" s="43">
@@ -21996,20 +23184,31 @@
       <c r="I18" s="43">
         <v>59</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="50">
         <f t="shared" si="0"/>
         <v>55.552777777777777</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="50">
         <f t="shared" si="1"/>
         <v>38.166388888888889</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O18" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P18" s="58"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="55" t="s">
         <v>296</v>
       </c>
       <c r="C19" s="43">
@@ -22033,20 +23232,37 @@
       <c r="I19" s="43">
         <v>39.950000000000003</v>
       </c>
-      <c r="J19" s="54">
-        <f t="shared" ref="J19" si="2">D19+E19/60+F19/3600</f>
+      <c r="J19" s="50">
+        <f t="shared" ref="J19" si="6">D19+E19/60+F19/3600</f>
         <v>55.563927777777778</v>
       </c>
-      <c r="K19" s="54">
-        <f t="shared" ref="K19" si="3">G19+H19/60+I19/3600</f>
+      <c r="K19" s="50">
+        <f t="shared" ref="K19" si="7">G19+H19/60+I19/3600</f>
         <v>38.127763888888886</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="62">
+        <v>55.563823999999997</v>
+      </c>
+      <c r="M19" s="62">
+        <v>38.127654999999997</v>
+      </c>
+      <c r="N19" s="70">
+        <f t="shared" si="4"/>
+        <v>0.37360000001172011</v>
+      </c>
+      <c r="O19" s="70">
+        <f t="shared" si="5"/>
+        <v>0.39199999999937063</v>
+      </c>
+      <c r="P19" s="58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="55" t="s">
         <v>297</v>
       </c>
       <c r="C20" s="43">
@@ -22070,20 +23286,37 @@
       <c r="I20" s="43">
         <v>56.23</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="50">
         <f t="shared" si="0"/>
         <v>55.536505555555557</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K20" s="50">
         <f t="shared" si="1"/>
         <v>38.182286111111111</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="62">
+        <v>55.536644000000003</v>
+      </c>
+      <c r="M20" s="62">
+        <v>38.181685999999999</v>
+      </c>
+      <c r="N20" s="70">
+        <f t="shared" si="4"/>
+        <v>0.49840000000358486</v>
+      </c>
+      <c r="O20" s="70">
+        <f t="shared" si="5"/>
+        <v>2.1604000000024826</v>
+      </c>
+      <c r="P20" s="58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="55" t="s">
         <v>280</v>
       </c>
       <c r="C21" s="43">
@@ -22107,20 +23340,31 @@
       <c r="I21" s="43">
         <v>15</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="50">
         <f t="shared" si="0"/>
         <v>55.5075</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="50">
         <f t="shared" si="1"/>
         <v>37.50416666666667</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O21" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P21" s="58"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="55" t="s">
         <v>298</v>
       </c>
       <c r="C22" s="43">
@@ -22144,20 +23388,37 @@
       <c r="I22" s="43">
         <v>16.600000000000001</v>
       </c>
-      <c r="J22" s="54">
-        <f t="shared" ref="J22" si="4">D22+E22/60+F22/3600</f>
+      <c r="J22" s="50">
+        <f t="shared" ref="J22" si="8">D22+E22/60+F22/3600</f>
         <v>55.506777777777778</v>
       </c>
-      <c r="K22" s="54">
-        <f t="shared" ref="K22" si="5">G22+H22/60+I22/3600</f>
+      <c r="K22" s="50">
+        <f t="shared" ref="K22" si="9">G22+H22/60+I22/3600</f>
         <v>37.487944444444445</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="62">
+        <v>55.506777999999997</v>
+      </c>
+      <c r="M22" s="62">
+        <v>37.487943999999999</v>
+      </c>
+      <c r="N22" s="70">
+        <f t="shared" si="4"/>
+        <v>7.9999998945368134E-4</v>
+      </c>
+      <c r="O22" s="70">
+        <f t="shared" si="5"/>
+        <v>1.6000000044869012E-3</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="55" t="s">
         <v>299</v>
       </c>
       <c r="C23" s="43">
@@ -22181,20 +23442,38 @@
       <c r="I23" s="43">
         <v>13</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="50">
         <f t="shared" si="0"/>
         <v>55.508444444444443</v>
       </c>
-      <c r="K23" s="54">
+      <c r="K23" s="50">
         <f t="shared" si="1"/>
         <v>37.520277777777778</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="62">
+        <v>55.508288999999998</v>
+      </c>
+      <c r="M23" s="62">
+        <v>37.517639000000003</v>
+      </c>
+      <c r="N23" s="70">
+        <f t="shared" si="4"/>
+        <v>0.55960000000254695</v>
+      </c>
+      <c r="O23" s="70">
+        <f t="shared" si="5"/>
+        <v>9.4995999999923697</v>
+      </c>
+      <c r="P23" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q23" s="72"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="55" t="s">
         <v>280</v>
       </c>
       <c r="C24" s="43">
@@ -22218,20 +23497,31 @@
       <c r="I24" s="43">
         <v>52</v>
       </c>
-      <c r="J24" s="54">
-        <f t="shared" ref="J24:J33" si="6">D24+E24/60+F24/3600</f>
+      <c r="J24" s="50">
+        <f t="shared" ref="J24:J33" si="10">D24+E24/60+F24/3600</f>
         <v>55.611388888888889</v>
       </c>
-      <c r="K24" s="54">
-        <f t="shared" ref="K24:K33" si="7">G24+H24/60+I24/3600</f>
+      <c r="K24" s="50">
+        <f t="shared" ref="K24:K33" si="11">G24+H24/60+I24/3600</f>
         <v>36.647777777777776</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O24" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P24" s="58"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="55" t="s">
         <v>300</v>
       </c>
       <c r="C25" s="43">
@@ -22255,20 +23545,37 @@
       <c r="I25" s="43">
         <v>49</v>
       </c>
-      <c r="J25" s="54">
-        <f t="shared" si="6"/>
+      <c r="J25" s="50">
+        <f t="shared" si="10"/>
         <v>55.61888888888889</v>
       </c>
-      <c r="K25" s="54">
-        <f t="shared" si="7"/>
+      <c r="K25" s="50">
+        <f t="shared" si="11"/>
         <v>36.663611111111109</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="62">
+        <v>55.618721000000001</v>
+      </c>
+      <c r="M25" s="62">
+        <v>36.663035999999998</v>
+      </c>
+      <c r="N25" s="70">
+        <f t="shared" si="4"/>
+        <v>0.60440000000028249</v>
+      </c>
+      <c r="O25" s="70">
+        <f t="shared" si="5"/>
+        <v>2.0703999999994949</v>
+      </c>
+      <c r="P25" s="58" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="55" t="s">
         <v>301</v>
       </c>
       <c r="C26" s="43">
@@ -22292,20 +23599,37 @@
       <c r="I26" s="43">
         <v>59</v>
       </c>
-      <c r="J26" s="54">
-        <f t="shared" si="6"/>
+      <c r="J26" s="50">
+        <f t="shared" si="10"/>
         <v>55.604444444444447</v>
       </c>
-      <c r="K26" s="54">
-        <f t="shared" si="7"/>
+      <c r="K26" s="50">
+        <f t="shared" si="11"/>
         <v>36.633055555555558</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="62">
+        <v>55.604568</v>
+      </c>
+      <c r="M26" s="62">
+        <v>36.633167</v>
+      </c>
+      <c r="N26" s="70">
+        <f t="shared" si="4"/>
+        <v>0.44479999999396114</v>
+      </c>
+      <c r="O26" s="70">
+        <f t="shared" si="5"/>
+        <v>0.40119999999319589</v>
+      </c>
+      <c r="P26" s="58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="55" t="s">
         <v>280</v>
       </c>
       <c r="C27" s="43">
@@ -22329,20 +23653,31 @@
       <c r="I27" s="43">
         <v>48</v>
       </c>
-      <c r="J27" s="54">
-        <f t="shared" si="6"/>
+      <c r="J27" s="50">
+        <f t="shared" si="10"/>
         <v>55.88</v>
       </c>
-      <c r="K27" s="54">
-        <f t="shared" si="7"/>
+      <c r="K27" s="50">
+        <f t="shared" si="11"/>
         <v>38.063333333333333</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O27" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P27" s="58"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="55" t="s">
         <v>302</v>
       </c>
       <c r="C28" s="43">
@@ -22362,20 +23697,37 @@
         <v>2.4</v>
       </c>
       <c r="I28" s="43"/>
-      <c r="J28" s="54">
-        <f t="shared" ref="J28:J29" si="8">D28+E28/60+F28/3600</f>
+      <c r="J28" s="50">
+        <f t="shared" ref="J28:J29" si="12">D28+E28/60+F28/3600</f>
         <v>55.888333333333335</v>
       </c>
-      <c r="K28" s="54">
-        <f t="shared" ref="K28:K29" si="9">G28+H28/60+I28/3600</f>
+      <c r="K28" s="50">
+        <f t="shared" ref="K28:K29" si="13">G28+H28/60+I28/3600</f>
         <v>38.04</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="62">
+        <v>55.888702000000002</v>
+      </c>
+      <c r="M28" s="62">
+        <v>38.037426000000004</v>
+      </c>
+      <c r="N28" s="70">
+        <f t="shared" si="4"/>
+        <v>1.3272000000000617</v>
+      </c>
+      <c r="O28" s="70">
+        <f t="shared" si="5"/>
+        <v>9.2663999999842872</v>
+      </c>
+      <c r="P28" s="58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="55" t="s">
         <v>303</v>
       </c>
       <c r="C29" s="43">
@@ -22395,20 +23747,38 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I29" s="43"/>
-      <c r="J29" s="54">
-        <f t="shared" si="8"/>
+      <c r="J29" s="50">
+        <f t="shared" si="12"/>
         <v>55.87</v>
       </c>
-      <c r="K29" s="54">
-        <f t="shared" si="9"/>
+      <c r="K29" s="50">
+        <f t="shared" si="13"/>
         <v>38.076666666666668</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="62">
+        <v>55.867820999999999</v>
+      </c>
+      <c r="M29" s="62">
+        <v>38.080959</v>
+      </c>
+      <c r="N29" s="70">
+        <f t="shared" si="4"/>
+        <v>7.8443999999933567</v>
+      </c>
+      <c r="O29" s="70">
+        <f t="shared" si="5"/>
+        <v>15.452399999995237</v>
+      </c>
+      <c r="P29" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q29" s="72"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="55" t="s">
         <v>304</v>
       </c>
       <c r="C30" s="43">
@@ -22428,20 +23798,37 @@
         <v>2.7</v>
       </c>
       <c r="I30" s="43"/>
-      <c r="J30" s="54">
-        <f t="shared" si="6"/>
+      <c r="J30" s="50">
+        <f t="shared" si="10"/>
         <v>55.89</v>
       </c>
-      <c r="K30" s="54">
-        <f t="shared" si="7"/>
+      <c r="K30" s="50">
+        <f t="shared" si="11"/>
         <v>38.045000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="62">
+        <v>55.889552999999999</v>
+      </c>
+      <c r="M30" s="62">
+        <v>38.043529999999997</v>
+      </c>
+      <c r="N30" s="70">
+        <f t="shared" si="4"/>
+        <v>1.6092000000043072</v>
+      </c>
+      <c r="O30" s="70">
+        <f t="shared" si="5"/>
+        <v>5.292000000017083</v>
+      </c>
+      <c r="P30" s="58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="55" t="s">
         <v>305</v>
       </c>
       <c r="C31" s="43">
@@ -22461,20 +23848,37 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="I31" s="43"/>
-      <c r="J31" s="54">
-        <f t="shared" si="6"/>
+      <c r="J31" s="50">
+        <f t="shared" si="10"/>
         <v>55.87166666666667</v>
       </c>
-      <c r="K31" s="54">
-        <f t="shared" si="7"/>
+      <c r="K31" s="50">
+        <f t="shared" si="11"/>
         <v>38.081666666666663</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="62">
+        <v>55.872329999999998</v>
+      </c>
+      <c r="M31" s="62">
+        <v>38.079445</v>
+      </c>
+      <c r="N31" s="70">
+        <f t="shared" si="4"/>
+        <v>2.3879999999820711</v>
+      </c>
+      <c r="O31" s="70">
+        <f t="shared" si="5"/>
+        <v>7.997999999989247</v>
+      </c>
+      <c r="P31" s="58" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="55" t="s">
         <v>280</v>
       </c>
       <c r="C32" s="43">
@@ -22494,20 +23898,31 @@
         <v>4</v>
       </c>
       <c r="I32" s="43"/>
-      <c r="J32" s="54">
-        <f t="shared" si="6"/>
+      <c r="J32" s="50">
+        <f t="shared" si="10"/>
         <v>55.615000000000002</v>
       </c>
-      <c r="K32" s="54">
-        <f t="shared" si="7"/>
+      <c r="K32" s="50">
+        <f t="shared" si="11"/>
         <v>38.06666666666667</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O32" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P32" s="58"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="55" t="s">
         <v>306</v>
       </c>
       <c r="C33" s="43">
@@ -22527,20 +23942,37 @@
         <v>3.2</v>
       </c>
       <c r="I33" s="43"/>
-      <c r="J33" s="54">
-        <f t="shared" si="6"/>
+      <c r="J33" s="50">
+        <f t="shared" si="10"/>
         <v>55.6175</v>
       </c>
-      <c r="K33" s="54">
-        <f t="shared" si="7"/>
+      <c r="K33" s="50">
+        <f t="shared" si="11"/>
         <v>38.053333333333335</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="62">
+        <v>55.619433999999998</v>
+      </c>
+      <c r="M33" s="62">
+        <v>38.047710000000002</v>
+      </c>
+      <c r="N33" s="70">
+        <f t="shared" si="4"/>
+        <v>6.9623999999947728</v>
+      </c>
+      <c r="O33" s="70">
+        <f t="shared" si="5"/>
+        <v>20.243999999996731</v>
+      </c>
+      <c r="P33" s="58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="55" t="s">
         <v>307</v>
       </c>
       <c r="C34" s="43">
@@ -22560,20 +23992,37 @@
         <v>4.8</v>
       </c>
       <c r="I34" s="43"/>
-      <c r="J34" s="54">
+      <c r="J34" s="50">
         <f t="shared" si="0"/>
         <v>55.612499999999997</v>
       </c>
-      <c r="K34" s="54">
+      <c r="K34" s="50">
         <f t="shared" si="1"/>
         <v>38.08</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="62">
+        <v>55.614322999999999</v>
+      </c>
+      <c r="M34" s="62">
+        <v>38.073734000000002</v>
+      </c>
+      <c r="N34" s="70">
+        <f t="shared" si="4"/>
+        <v>6.5628000000060638</v>
+      </c>
+      <c r="O34" s="70">
+        <f t="shared" si="5"/>
+        <v>22.557599999987588</v>
+      </c>
+      <c r="P34" s="58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="55" t="s">
         <v>280</v>
       </c>
       <c r="C35" s="43">
@@ -22597,20 +24046,31 @@
       <c r="I35" s="43">
         <v>49</v>
       </c>
-      <c r="J35" s="54">
+      <c r="J35" s="50">
         <f t="shared" si="0"/>
         <v>43.444444444444443</v>
       </c>
-      <c r="K35" s="54">
+      <c r="K35" s="50">
         <f t="shared" si="1"/>
         <v>39.946944444444441</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O35" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P35" s="58"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="55" t="s">
         <v>294</v>
       </c>
       <c r="C36" s="43">
@@ -22634,20 +24094,31 @@
       <c r="I36" s="43">
         <v>40.450000000000003</v>
       </c>
-      <c r="J36" s="54">
-        <f t="shared" ref="J36:J38" si="10">D36+E36/60+F36/3600</f>
+      <c r="J36" s="50">
+        <f t="shared" ref="J36:J38" si="14">D36+E36/60+F36/3600</f>
         <v>43.434322222222221</v>
       </c>
-      <c r="K36" s="54">
-        <f t="shared" ref="K36:K38" si="11">G36+H36/60+I36/3600</f>
+      <c r="K36" s="50">
+        <f t="shared" ref="K36:K38" si="15">G36+H36/60+I36/3600</f>
         <v>39.94456944444444</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O36" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P36" s="58"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="55" t="s">
         <v>295</v>
       </c>
       <c r="C37" s="43">
@@ -22671,20 +24142,31 @@
       <c r="I37" s="43">
         <v>33.85</v>
       </c>
-      <c r="J37" s="54">
-        <f t="shared" si="10"/>
+      <c r="J37" s="50">
+        <f t="shared" si="14"/>
         <v>43.454061111111116</v>
       </c>
-      <c r="K37" s="54">
-        <f t="shared" si="11"/>
+      <c r="K37" s="50">
+        <f t="shared" si="15"/>
         <v>39.959402777777782</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O37" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P37" s="58"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="55" t="s">
         <v>292</v>
       </c>
       <c r="C38" s="43">
@@ -22708,20 +24190,31 @@
       <c r="I38" s="43">
         <v>32.770000000000003</v>
       </c>
-      <c r="J38" s="54">
-        <f t="shared" si="10"/>
+      <c r="J38" s="50">
+        <f t="shared" si="14"/>
         <v>43.439458333333327</v>
       </c>
-      <c r="K38" s="54">
-        <f t="shared" si="11"/>
+      <c r="K38" s="50">
+        <f t="shared" si="15"/>
         <v>39.925769444444441</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O38" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P38" s="58"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="55" t="s">
         <v>291</v>
       </c>
       <c r="C39" s="43">
@@ -22745,14 +24238,25 @@
       <c r="I39" s="43">
         <v>29.32</v>
       </c>
-      <c r="J39" s="54">
+      <c r="J39" s="50">
         <f t="shared" si="0"/>
         <v>43.450530555555559</v>
       </c>
-      <c r="K39" s="54">
+      <c r="K39" s="50">
         <f t="shared" si="1"/>
         <v>39.95814444444445</v>
       </c>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O39" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P39" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K39">
@@ -22765,6 +24269,16 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
+  <conditionalFormatting sqref="N3:O39">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:O39">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
